--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -1,23 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>cсумма квадратов строки</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>таблица квдратов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADOTable1-&gt;First();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for (int i=1;i&lt;ADOTable1-&gt;RecordCount; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (int j = 0; j &lt; ADOTable1-&gt;FieldCount; j++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Q = (ADOTable1-&gt;Fields-&gt;Fields[1]-&gt;AsFloat);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ADOTable1-&gt;Next();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        i++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,15 +73,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -63,31 +100,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -96,6 +124,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -383,848 +421,4008 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
-      <c r="A1" s="9">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="4">
         <v>129.36699999999999</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="4">
         <v>129.321</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="4">
         <v>129.328</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="4">
         <v>129.328</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="4">
         <v>129.351</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="4">
         <v>129.352</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="4">
         <v>129.321</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="4">
         <v>129.333</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="4">
         <v>129.351</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="4">
         <v>129.38900000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="9">
+      <c r="R1" s="5">
+        <f>B1*P1</f>
+        <v>16738.666763000001</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="4">
         <v>129.36799999999999</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>129.351</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>129.321</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="4">
         <v>129.36500000000001</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>129.352</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="4">
         <v>129.352</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>129.36500000000001</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="4">
         <v>129.33500000000001</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="4">
         <v>129.36500000000001</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="4">
         <v>129.352</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="4">
         <v>129.387</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="9">
+      <c r="R2" s="5">
+        <f t="shared" ref="R2:R14" si="0">B2*P2</f>
+        <v>16738.537415999999</v>
+      </c>
+      <c r="T2">
+        <f>POWER(SUM(B1:P1),  2)</f>
+        <v>3764407.0832640002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>129.321</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>129.352</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>129.351</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="4">
         <v>129.339</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <v>129.321</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="4">
         <v>129.352</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="4">
         <v>129.38200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="9">
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>16737.631812000003</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T15" si="1">POWER(SUM(B2:P2),  2)</f>
+        <v>3764434.2462250004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>129.358</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>129.35599999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>129.33500000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>129.322</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>129.32</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>129.352</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <v>129.36799999999999</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <v>129.322</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="4">
         <v>129.32</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="4">
         <v>129.352</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="4">
         <v>129.38200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="9">
+      <c r="R4" s="5">
+        <f t="shared" si="0"/>
+        <v>16736.596756000003</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>3764422.604944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>129.33099999999999</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>129.36699999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>129.351</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="4">
         <v>129.369</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="4">
         <v>129.351</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="4">
         <v>129.38200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="9">
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>16736.208609999998</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>3764376.040000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>129.351</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>129.333</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>129.328</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>129.322</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>129.358</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="4">
         <v>129.322</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="4">
         <v>129.36600000000001</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="4">
         <v>129.322</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="4">
         <v>129.38499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="9">
+      <c r="R6" s="5">
+        <f t="shared" si="0"/>
+        <v>16736.079135</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>3764434.2462250004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>129.35</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>129.358</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>129.327</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>129.35300000000001</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>129.352</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="4">
         <v>129.321</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="4">
         <v>129.322</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="4">
         <v>129.36500000000001</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="4">
         <v>129.32499999999999</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="4">
         <v>129.328</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="4">
         <v>129.386</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="9">
+      <c r="R7" s="5">
+        <f t="shared" si="0"/>
+        <v>16736.079099999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>3764310.0734890001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>129.322</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>129.322</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>129.36099999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>129.327</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>129.351</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>129.35599999999999</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="4">
         <v>129.363</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <v>129.322</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="4">
         <v>129.322</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="4">
         <v>129.36099999999999</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="4">
         <v>129.327</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="4">
         <v>129.38800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
-      <c r="A9" s="9">
+      <c r="R8" s="5">
+        <f>B8*P8</f>
+        <v>16736.98474</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>3764251.8682240006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>129.322</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>129.32</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>129.358</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="4">
         <v>129.36500000000001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <v>129.322</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <v>129.32</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="4">
         <v>129.32900000000001</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="4">
         <v>129.35599999999999</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="4">
         <v>129.381</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
-      <c r="A10" s="9">
+      <c r="R9" s="5">
+        <f t="shared" si="0"/>
+        <v>16736.984922</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>3764344.9968639989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>129.369</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>129.36099999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>129.33600000000001</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>129.328</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>129.35599999999999</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="4">
         <v>129.36099999999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="4">
         <v>129.32599999999999</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="4">
         <v>129.33600000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="4">
         <v>129.328</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="4">
         <v>129.38200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="9">
+      <c r="R10" s="5">
+        <f t="shared" si="0"/>
+        <v>16738.019958000001</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>3764379.920400999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>129.375</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>129.321</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>129.33500000000001</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>129.369</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="4">
         <v>129.33099999999999</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>129.358</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="4">
         <v>129.321</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="4">
         <v>129.33799999999999</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="4">
         <v>129.36099999999999</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="4">
         <v>129.321</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="4">
         <v>129.35499999999999</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="4">
         <v>129.386</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="9">
+      <c r="R11" s="5">
+        <f t="shared" si="0"/>
+        <v>16739.313750000001</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>3764573.9430009997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>129.37799999999999</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>129.339</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>129.37</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4">
         <v>129.35300000000001</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="4">
         <v>129.36000000000001</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="4">
         <v>129.339</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="4">
         <v>129.363</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="4">
         <v>129.322</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="4">
         <v>129.351</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="4">
         <v>129.38300000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="9">
+      <c r="R12" s="5">
+        <f t="shared" si="0"/>
+        <v>16739.313773999998</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>3764570.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>129.37799999999999</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>129.339</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="4">
         <v>129.33099999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>129.357</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <v>129.357</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="4">
         <v>129.339</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="4">
         <v>129.33199999999999</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="4">
         <v>129.36199999999999</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="4">
         <v>129.321</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="4">
         <v>129.35900000000001</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="4">
         <v>129.38499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75">
-      <c r="A14" s="9">
+      <c r="R13" s="5">
+        <f t="shared" si="0"/>
+        <v>16739.572529999998</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>3764655.4339839988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>129.376</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>129.358</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>129.33799999999999</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>129.33500000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>129.36799999999999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="4">
         <v>129.33000000000001</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="4">
         <v>129.357</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="4">
         <v>129.358</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="4">
         <v>129.358</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="4">
         <v>129.33799999999999</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="4">
         <v>129.33500000000001</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="4">
         <v>129.33799999999999</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="4">
         <v>129.32</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="4">
         <v>129.35300000000001</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="4">
         <v>129.386</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="4"/>
+      <c r="R14" s="5">
+        <f t="shared" si="0"/>
+        <v>16739.443136000002</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>3764655.4339839988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="R15" s="5"/>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>3764562.3015040001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="R16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6">
+        <v>6</v>
+      </c>
+      <c r="P17" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>8</v>
+      </c>
+      <c r="R17" s="6">
+        <v>9</v>
+      </c>
+      <c r="S17" s="6">
+        <v>10</v>
+      </c>
+      <c r="T17" s="6">
+        <v>11</v>
+      </c>
+      <c r="U17" s="6">
+        <v>12</v>
+      </c>
+      <c r="V17" s="6">
+        <v>13</v>
+      </c>
+      <c r="W17" s="6">
+        <v>14</v>
+      </c>
+      <c r="X17" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>B$1*B1</f>
+        <v>16735.820688999996</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:Y18" si="2">C$1*C1</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>16727.024889</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>16741.513321000002</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(J18:X18)</f>
+        <v>250960.47788799999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>SUMSQ(B1:P1)</f>
+        <v>250960.47788799999</v>
+      </c>
+      <c r="C19">
+        <f>SQRT(B19)</f>
+        <v>500.95955713809872</v>
+      </c>
+      <c r="G19">
+        <f>$C$19*C19</f>
+        <v>250960.47788799999</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f>B$1*B2</f>
+        <v>16735.950055999998</v>
+      </c>
+      <c r="K19">
+        <f>C$1*C2</f>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="L19">
+        <f>D$1*D2</f>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="M19">
+        <f>E$1*E2</f>
+        <v>16724.826288</v>
+      </c>
+      <c r="N19">
+        <f>F$1*F2</f>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="O19">
+        <f>G$1*G2</f>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="P19">
+        <f>H$1*H2</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="Q19">
+        <f>I$1*I2</f>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="R19">
+        <f>J$1*J2</f>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="S19">
+        <f>K$1*K2</f>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="T19">
+        <f>L$1*L2</f>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="U19">
+        <f>M$1*M2</f>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="V19">
+        <f>N$1*N2</f>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="W19">
+        <f>O$1*O2</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="X19">
+        <f>P$1*P2</f>
+        <v>16741.254543000003</v>
+      </c>
+      <c r="Y19">
+        <f>SUM(J19:X19)</f>
+        <v>250961.38329900004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B32" si="3">SUMSQ(B2:P2)</f>
+        <v>250962.28884900006</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C32" si="4">SQRT(B20)</f>
+        <v>500.96136462705391</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G32" si="5">$C$19*C20</f>
+        <v>250961.38336686653</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>B$1*B3</f>
+        <v>16735.691321999999</v>
+      </c>
+      <c r="K20">
+        <f>C$1*C3</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="L20">
+        <f>D$1*D3</f>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="M20">
+        <f>E$1*E3</f>
+        <v>16725.3436</v>
+      </c>
+      <c r="N20">
+        <f>F$1*F3</f>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="O20">
+        <f>G$1*G3</f>
+        <v>16724.826288</v>
+      </c>
+      <c r="P20">
+        <f>H$1*H3</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="Q20">
+        <f>I$1*I3</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="R20">
+        <f>J$1*J3</f>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="S20">
+        <f>K$1*K3</f>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="T20">
+        <f>L$1*L3</f>
+        <v>16727.800887000001</v>
+      </c>
+      <c r="U20">
+        <f>M$1*M3</f>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="V20">
+        <f>N$1*N3</f>
+        <v>16724.567646</v>
+      </c>
+      <c r="W20">
+        <f>O$1*O3</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="X20">
+        <f>P$1*P3</f>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(J20:X20)</f>
+        <v>250960.99481999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>250961.51206799995</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>500.96058933612727</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>250960.99497746726</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f>B$1*B4</f>
+        <v>16734.656385999999</v>
+      </c>
+      <c r="K21">
+        <f>C$1*C4</f>
+        <v>16732.845379999999</v>
+      </c>
+      <c r="L21">
+        <f>D$1*D4</f>
+        <v>16725.731534999999</v>
+      </c>
+      <c r="M21">
+        <f>E$1*E4</f>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="N21">
+        <f>F$1*F4</f>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="O21">
+        <f>G$1*G4</f>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="P21">
+        <f>H$1*H4</f>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="Q21">
+        <f>I$1*I4</f>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="R21">
+        <f>J$1*J4</f>
+        <v>16735.303216</v>
+      </c>
+      <c r="S21">
+        <f>K$1*K4</f>
+        <v>16724.567646</v>
+      </c>
+      <c r="T21">
+        <f>L$1*L4</f>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="U21">
+        <f>M$1*M4</f>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="V21">
+        <f>N$1*N4</f>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="W21">
+        <f>O$1*O4</f>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="X21">
+        <f>P$1*P4</f>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="Y21">
+        <f>SUM(J21:X21)</f>
+        <v>250959.442928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>250958.40866200003</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>500.95749187131639</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>250959.44327286736</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <f>B$1*B5</f>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="K22">
+        <f>C$1*C5</f>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="L22">
+        <f>D$1*D5</f>
+        <v>16725.214250999998</v>
+      </c>
+      <c r="M22">
+        <f>E$1*E5</f>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="N22">
+        <f>F$1*F5</f>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="O22">
+        <f>G$1*G5</f>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="P22">
+        <f>H$1*H5</f>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="Q22">
+        <f>I$1*I5</f>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="R22">
+        <f>J$1*J5</f>
+        <v>16735.432578</v>
+      </c>
+      <c r="S22">
+        <f>K$1*K5</f>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="T22">
+        <f>L$1*L5</f>
+        <v>16726.119557999999</v>
+      </c>
+      <c r="U22">
+        <f>M$1*M5</f>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="V22">
+        <f>N$1*N5</f>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="W22">
+        <f>O$1*O5</f>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="X22">
+        <f>P$1*P5</f>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="Y22">
+        <f>SUM(J22:X22)</f>
+        <v>250961.38271599999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>250962.28805699997</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>500.9613638365737</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>250961.38297086791</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J33" si="6">B$1*B6</f>
+        <v>16733.750817</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K33" si="7">C$1*C6</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L33" si="8">D$1*D6</f>
+        <v>16725.472892999998</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M33" si="9">E$1*E6</f>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N33" si="10">F$1*F6</f>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O33" si="11">G$1*G6</f>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P33" si="12">H$1*H6</f>
+        <v>16732.716009</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q33" si="13">I$1*I6</f>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R33" si="14">J$1*J6</f>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S33" si="15">K$1*K6</f>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:T33" si="16">L$1*L6</f>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U33" si="17">M$1*M6</f>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V33" si="18">N$1*N6</f>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W33" si="19">O$1*O6</f>
+        <v>16728.835479000001</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:X33" si="20">P$1*P6</f>
+        <v>16740.995765</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:Y33" si="21">SUM(J23:X23)</f>
+        <v>250957.24375499994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>250954.010843</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>500.95310243874127</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>250957.24434466843</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>16733.621449999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>16725.343571999998</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
+        <v>16725.3436</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="12"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="13"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="14"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="15"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="16"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="17"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="18"/>
+        <v>16725.084949999997</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="19"/>
+        <v>16728.706128000002</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="20"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="21"/>
+        <v>250955.30349199998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>250950.130198</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>500.94922916199801</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>250955.30398966646</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="11"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="13"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="14"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="15"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="16"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="17"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="18"/>
+        <v>16725.343601999997</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="19"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="20"/>
+        <v>16741.383932000001</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="21"/>
+        <v>250958.40832899997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>250956.339136</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>500.95542629659178</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>250958.40850346806</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>16733.621509999997</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="11"/>
+        <v>16725.860912</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="12"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="13"/>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="14"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="15"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="16"/>
+        <v>16725.343559999998</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="17"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="18"/>
+        <v>16725.602254000001</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="19"/>
+        <v>16732.327956000001</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="20"/>
+        <v>16740.478209000001</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="21"/>
+        <v>250959.57232700003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>250958.66724899999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>500.95774996400644</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>250959.57256686705</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>16736.079422999999</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>16733.492154999996</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="9"/>
+        <v>16726.766208000001</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="11"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="12"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="13"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="14"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="15"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="16"/>
+        <v>16727.412888000003</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="17"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="18"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="19"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="20"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="21"/>
+        <v>250966.03917599999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>250971.60082499997</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>500.97065864679138</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>250966.03929487822</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>16736.855625</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>16735.432578</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="13"/>
+        <v>16732.845368000002</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="14"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="15"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>16727.671554</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="17"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="18"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="19"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="20"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="21"/>
+        <v>250965.91052000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>250971.34352600001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>500.97040184625678</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>250965.91064819615</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>16735.56194</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="13"/>
+        <v>16732.974720000002</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="14"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="15"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="16"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="17"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="18"/>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="19"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>16740.736987000004</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="21"/>
+        <v>250968.75524400003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>250977.03361200003</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>500.97608087811938</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>250968.75561348299</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="12"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="13"/>
+        <v>16732.586664000002</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="14"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="15"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="16"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="17"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="18"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="19"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="20"/>
+        <v>16740.995765</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="21"/>
+        <v>250968.75526599999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>250977.03362999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>500.97608089608428</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>250968.75562248271</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>16736.984991999998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>16735.303216</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>16725.990240000003</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="12"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="13"/>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="14"/>
+        <v>16734.009596</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="15"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="16"/>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="17"/>
+        <v>16731.422355999999</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="18"/>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="19"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="20"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="21"/>
+        <v>250965.65062099995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>250970.82482799998</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>500.96988415273029</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>250965.65130467637</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <f>B$1*B15</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="C1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I1" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L1" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="M1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N1" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P1" s="4">
+        <v>129.38900000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="D2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="F2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P2" s="4">
+        <v>129.387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="H3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I3" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="J3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="M3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P3" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="C4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="H4" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J4" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P4" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="K5" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P5" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="C6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="E6" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="H6" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J6" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O6" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="F7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L7" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M7" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="P7" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="H8" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I8" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="K8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="O8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>129.38800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I9" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>129.381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="C10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="O10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="C11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E11" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="G11" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I11" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L11" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O11" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>129.37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M12" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="N12" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O12" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P12" s="4">
+        <v>129.38300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="J13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="K14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O14" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <f>POWER(B1, 2)</f>
+        <v>16735.820688999996</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:P16" si="0">POWER(C1, 2)</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>16727.024889</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="0"/>
+        <v>16741.513321000002</v>
+      </c>
+      <c r="R16" s="6">
+        <f>SUM(B16:P16)</f>
+        <v>250960.47788799999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:P17" si="1">POWER(B2, 2)</f>
+        <v>16736.079424</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>16735.303225000003</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>16735.303225000003</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>16727.542225000001</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
+        <v>16735.303225000003</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>16740.995769000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ref="R17:R29" si="2">SUM(B17:P17)</f>
+        <v>250962.28884900006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ref="B18:P18" si="3">POWER(B3, 2)</f>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="3"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="3"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>16728.576921</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="3"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="3"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="3"/>
+        <v>16739.701924000001</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="2"/>
+        <v>250961.51206799995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19:P19" si="4">POWER(B4, 2)</f>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="4"/>
+        <v>16732.974736</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="4"/>
+        <v>16727.542225000001</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>16723.662399999997</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="4"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="4"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="4"/>
+        <v>16736.079424</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="4"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="4"/>
+        <v>16723.662399999997</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="4"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>16739.701924000001</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="2"/>
+        <v>250958.40866200003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" ref="B20:P20" si="5">POWER(B5, 2)</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="5"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="5"/>
+        <v>16726.507560999999</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="5"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="5"/>
+        <v>16735.820688999996</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="5"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="5"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
+        <v>16736.338161</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="5"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="5"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="5"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="5"/>
+        <v>16739.701924000001</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="2"/>
+        <v>250962.28805699997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" ref="B21:P21" si="6">POWER(B6, 2)</f>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="6"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="6"/>
+        <v>16727.024889</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="6"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="6"/>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="6"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="6"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="6"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="6"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="6"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="6"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="6"/>
+        <v>16735.561956000005</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="6"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="6"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="6"/>
+        <v>16740.478224999999</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="2"/>
+        <v>250954.010843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:P22" si="7">POWER(B7, 2)</f>
+        <v>16731.422499999997</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="7"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="7"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="7"/>
+        <v>16725.472929</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="7"/>
+        <v>16732.198609000003</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="7"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="7"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="7"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="7"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="7"/>
+        <v>16735.303225000003</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="7"/>
+        <v>16724.955624999999</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="7"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="7"/>
+        <v>16740.736996</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="2"/>
+        <v>250950.130198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:P23" si="8">POWER(B8, 2)</f>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="8"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="8"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="8"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="8"/>
+        <v>16734.268320999996</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="8"/>
+        <v>16725.472929</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="8"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="8"/>
+        <v>16732.974736</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="8"/>
+        <v>16734.785768999998</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="8"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="8"/>
+        <v>16734.268320999996</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="8"/>
+        <v>16725.472929</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="8"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="8"/>
+        <v>16741.254544000003</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" si="2"/>
+        <v>250956.339136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:P24" si="9">POWER(B9, 2)</f>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="9"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="9"/>
+        <v>16723.662399999997</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="9"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="9"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="9"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="9"/>
+        <v>16735.303225000003</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="9"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="9"/>
+        <v>16723.662399999997</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="9"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="9"/>
+        <v>16725.990241000003</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="9"/>
+        <v>16732.974736</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="9"/>
+        <v>16739.443160999999</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="2"/>
+        <v>250958.66724899999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" ref="B25:P25" si="10">POWER(B10, 2)</f>
+        <v>16736.338161</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="10"/>
+        <v>16734.268320999996</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="10"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="10"/>
+        <v>16727.800896000004</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="10"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="10"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="10"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="10"/>
+        <v>16732.974736</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="10"/>
+        <v>16734.268320999996</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="10"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="10"/>
+        <v>16727.800896000004</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="10"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="10"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="10"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="10"/>
+        <v>16739.701924000001</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="2"/>
+        <v>250971.60082499997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" ref="B26:P26" si="11">POWER(B11, 2)</f>
+        <v>16737.890625</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="11"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="11"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="11"/>
+        <v>16727.542225000001</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="11"/>
+        <v>16736.338161</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="11"/>
+        <v>16726.507560999999</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="11"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="11"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="11"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="11"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="11"/>
+        <v>16728.318243999998</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="11"/>
+        <v>16734.268320999996</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="11"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="11"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="11"/>
+        <v>16740.736996</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="2"/>
+        <v>250971.34352600001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:P27" si="12">POWER(B12, 2)</f>
+        <v>16738.666883999995</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="12"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="12"/>
+        <v>16728.576921</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="12"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="12"/>
+        <v>16736.5969</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="12"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="12"/>
+        <v>16732.198609000003</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="12"/>
+        <v>16734.009600000005</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="12"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="12"/>
+        <v>16728.576921</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="12"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="12"/>
+        <v>16734.785768999998</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="12"/>
+        <v>16724.179684000002</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="12"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="12"/>
+        <v>16739.960689000003</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="2"/>
+        <v>250977.03361200003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:P28" si="13">POWER(B13, 2)</f>
+        <v>16738.666883999995</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="13"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="13"/>
+        <v>16728.576921</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="13"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="13"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="13"/>
+        <v>16726.507560999999</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="13"/>
+        <v>16733.233448999999</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="13"/>
+        <v>16733.233448999999</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="13"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="13"/>
+        <v>16728.576921</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="13"/>
+        <v>16726.766223999999</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="13"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="13"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="13"/>
+        <v>16733.750881000004</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="13"/>
+        <v>16740.478224999999</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="2"/>
+        <v>250977.03362999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:P29" si="14">POWER(B14, 2)</f>
+        <v>16738.149376000001</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="14"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="14"/>
+        <v>16728.318243999998</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="14"/>
+        <v>16727.542225000001</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="14"/>
+        <v>16736.079424</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="14"/>
+        <v>16726.248900000002</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="14"/>
+        <v>16733.233448999999</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="14"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="14"/>
+        <v>16733.492163999999</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="14"/>
+        <v>16728.318243999998</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="14"/>
+        <v>16727.542225000001</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="14"/>
+        <v>16728.318243999998</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="14"/>
+        <v>16723.662399999997</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="14"/>
+        <v>16732.198609000003</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="14"/>
+        <v>16740.736996</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="2"/>
+        <v>250970.82482799998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="k" sheetId="3" r:id="rId2"/>
+    <sheet name="Q" sheetId="2" r:id="rId3"/>
+    <sheet name="Альфа" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Alpha</t>
   </si>
@@ -58,11 +60,20 @@
   <si>
     <t xml:space="preserve">  }</t>
   </si>
+  <si>
+    <t>без аркосинуса</t>
+  </si>
+  <si>
+    <t>альфа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -118,6 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1355,7 +1367,7 @@
         <v>16735.820688999996</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:Y18" si="2">C$1*C1</f>
+        <f t="shared" ref="K18:X18" si="2">C$1*C1</f>
         <v>16732.716024999998</v>
       </c>
       <c r="L18">
@@ -1439,59 +1451,59 @@
         <v>16735.950055999998</v>
       </c>
       <c r="K19">
-        <f>C$1*C2</f>
+        <f t="shared" ref="K19:X22" si="3">C$1*C2</f>
         <v>16732.198604999998</v>
       </c>
       <c r="L19">
-        <f>D$1*D2</f>
+        <f t="shared" si="3"/>
         <v>16724.438324999999</v>
       </c>
       <c r="M19">
-        <f>E$1*E2</f>
+        <f t="shared" si="3"/>
         <v>16724.826288</v>
       </c>
       <c r="N19">
-        <f>F$1*F2</f>
+        <f t="shared" si="3"/>
         <v>16734.915130000001</v>
       </c>
       <c r="O19">
-        <f>G$1*G2</f>
+        <f t="shared" si="3"/>
         <v>16725.472927999999</v>
       </c>
       <c r="P19">
-        <f>H$1*H2</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="Q19">
-        <f>I$1*I2</f>
+        <f t="shared" si="3"/>
         <v>16731.939904000003</v>
       </c>
       <c r="R19">
-        <f>J$1*J2</f>
+        <f t="shared" si="3"/>
         <v>16734.915130000001</v>
       </c>
       <c r="S19">
-        <f>K$1*K2</f>
+        <f t="shared" si="3"/>
         <v>16724.438324999999</v>
       </c>
       <c r="T19">
-        <f>L$1*L2</f>
+        <f t="shared" si="3"/>
         <v>16727.283555000002</v>
       </c>
       <c r="U19">
-        <f>M$1*M2</f>
+        <f t="shared" si="3"/>
         <v>16734.915130000001</v>
       </c>
       <c r="V19">
-        <f>N$1*N2</f>
+        <f t="shared" si="3"/>
         <v>16725.214275999999</v>
       </c>
       <c r="W19">
-        <f>O$1*O2</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="X19">
-        <f>P$1*P2</f>
+        <f t="shared" si="3"/>
         <v>16741.254543000003</v>
       </c>
       <c r="Y19">
@@ -1504,15 +1516,15 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:B32" si="3">SUMSQ(B2:P2)</f>
+        <f t="shared" ref="B20:B32" si="4">SUMSQ(B2:P2)</f>
         <v>250962.28884900006</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C32" si="4">SQRT(B20)</f>
+        <f t="shared" ref="C20:C32" si="5">SQRT(B20)</f>
         <v>500.96136462705391</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G32" si="5">$C$19*C20</f>
+        <f t="shared" ref="G20:G32" si="6">$C$19*C20</f>
         <v>250961.38336686653</v>
       </c>
       <c r="I20">
@@ -1523,59 +1535,59 @@
         <v>16735.691321999999</v>
       </c>
       <c r="K20">
-        <f>C$1*C3</f>
+        <f t="shared" si="3"/>
         <v>16732.716024999998</v>
       </c>
       <c r="L20">
-        <f>D$1*D3</f>
+        <f t="shared" si="3"/>
         <v>16724.955609000001</v>
       </c>
       <c r="M20">
-        <f>E$1*E3</f>
+        <f t="shared" si="3"/>
         <v>16725.3436</v>
       </c>
       <c r="N20">
-        <f>F$1*F3</f>
+        <f t="shared" si="3"/>
         <v>16734.527043999999</v>
       </c>
       <c r="O20">
-        <f>G$1*G3</f>
+        <f t="shared" si="3"/>
         <v>16724.826288</v>
       </c>
       <c r="P20">
-        <f>H$1*H3</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="Q20">
-        <f>I$1*I3</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="R20">
-        <f>J$1*J3</f>
+        <f t="shared" si="3"/>
         <v>16735.044492000001</v>
       </c>
       <c r="S20">
-        <f>K$1*K3</f>
+        <f t="shared" si="3"/>
         <v>16724.955609000001</v>
       </c>
       <c r="T20">
-        <f>L$1*L3</f>
+        <f t="shared" si="3"/>
         <v>16727.800887000001</v>
       </c>
       <c r="U20">
-        <f>M$1*M3</f>
+        <f t="shared" si="3"/>
         <v>16734.527043999999</v>
       </c>
       <c r="V20">
-        <f>N$1*N3</f>
+        <f t="shared" si="3"/>
         <v>16724.567646</v>
       </c>
       <c r="W20">
-        <f>O$1*O3</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="X20">
-        <f>P$1*P3</f>
+        <f t="shared" si="3"/>
         <v>16740.607598000002</v>
       </c>
       <c r="Y20">
@@ -1588,15 +1600,15 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250961.51206799995</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.96058933612727</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250960.99497746726</v>
       </c>
       <c r="I21">
@@ -1607,59 +1619,59 @@
         <v>16734.656385999999</v>
       </c>
       <c r="K21">
-        <f>C$1*C4</f>
+        <f t="shared" si="3"/>
         <v>16732.845379999999</v>
       </c>
       <c r="L21">
-        <f>D$1*D4</f>
+        <f t="shared" si="3"/>
         <v>16725.731534999999</v>
       </c>
       <c r="M21">
-        <f>E$1*E4</f>
+        <f t="shared" si="3"/>
         <v>16724.955615999999</v>
       </c>
       <c r="N21">
-        <f>F$1*F4</f>
+        <f t="shared" si="3"/>
         <v>16735.044492000001</v>
       </c>
       <c r="O21">
-        <f>G$1*G4</f>
+        <f t="shared" si="3"/>
         <v>16724.696960000001</v>
       </c>
       <c r="P21">
-        <f>H$1*H4</f>
+        <f t="shared" si="3"/>
         <v>16732.198604999998</v>
       </c>
       <c r="Q21">
-        <f>I$1*I4</f>
+        <f t="shared" si="3"/>
         <v>16731.939904000003</v>
       </c>
       <c r="R21">
-        <f>J$1*J4</f>
+        <f t="shared" si="3"/>
         <v>16735.303216</v>
       </c>
       <c r="S21">
-        <f>K$1*K4</f>
+        <f t="shared" si="3"/>
         <v>16724.567646</v>
       </c>
       <c r="T21">
-        <f>L$1*L4</f>
+        <f t="shared" si="3"/>
         <v>16725.602225999999</v>
       </c>
       <c r="U21">
-        <f>M$1*M4</f>
+        <f t="shared" si="3"/>
         <v>16735.044492000001</v>
       </c>
       <c r="V21">
-        <f>N$1*N4</f>
+        <f t="shared" si="3"/>
         <v>16724.438319999997</v>
       </c>
       <c r="W21">
-        <f>O$1*O4</f>
+        <f t="shared" si="3"/>
         <v>16731.810551999999</v>
       </c>
       <c r="X21">
-        <f>P$1*P4</f>
+        <f t="shared" si="3"/>
         <v>16740.607598000002</v>
       </c>
       <c r="Y21">
@@ -1672,15 +1684,15 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250958.40866200003</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.95749187131639</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250959.44327286736</v>
       </c>
       <c r="I22">
@@ -1691,59 +1703,59 @@
         <v>16734.268284999998</v>
       </c>
       <c r="K22">
-        <f>C$1*C5</f>
+        <f t="shared" si="3"/>
         <v>16733.233444999998</v>
       </c>
       <c r="L22">
-        <f>D$1*D5</f>
+        <f t="shared" si="3"/>
         <v>16725.214250999998</v>
       </c>
       <c r="M22">
-        <f>E$1*E5</f>
+        <f t="shared" si="3"/>
         <v>16725.472927999999</v>
       </c>
       <c r="N22">
-        <f>F$1*F5</f>
+        <f t="shared" si="3"/>
         <v>16735.173853999997</v>
       </c>
       <c r="O22">
-        <f>G$1*G5</f>
+        <f t="shared" si="3"/>
         <v>16725.472927999999</v>
       </c>
       <c r="P22">
-        <f>H$1*H5</f>
+        <f t="shared" si="3"/>
         <v>16731.681200999999</v>
       </c>
       <c r="Q22">
-        <f>I$1*I5</f>
+        <f t="shared" si="3"/>
         <v>16732.327959999999</v>
       </c>
       <c r="R22">
-        <f>J$1*J5</f>
+        <f t="shared" si="3"/>
         <v>16735.432578</v>
       </c>
       <c r="S22">
-        <f>K$1*K5</f>
+        <f t="shared" si="3"/>
         <v>16724.955609000001</v>
       </c>
       <c r="T22">
-        <f>L$1*L5</f>
+        <f t="shared" si="3"/>
         <v>16726.119557999999</v>
       </c>
       <c r="U22">
-        <f>M$1*M5</f>
+        <f t="shared" si="3"/>
         <v>16734.527043999999</v>
       </c>
       <c r="V22">
-        <f>N$1*N5</f>
+        <f t="shared" si="3"/>
         <v>16725.214275999999</v>
       </c>
       <c r="W22">
-        <f>O$1*O5</f>
+        <f t="shared" si="3"/>
         <v>16731.681200999999</v>
       </c>
       <c r="X22">
-        <f>P$1*P5</f>
+        <f t="shared" si="3"/>
         <v>16740.607598000002</v>
       </c>
       <c r="Y22">
@@ -1756,82 +1768,82 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250962.28805699997</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.9613638365737</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250961.38297086791</v>
       </c>
       <c r="I23">
         <v>6</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J33" si="6">B$1*B6</f>
+        <f t="shared" ref="J23:J33" si="7">B$1*B6</f>
         <v>16733.750817</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K33" si="7">C$1*C6</f>
+        <f t="shared" ref="K23:K33" si="8">C$1*C6</f>
         <v>16732.716024999998</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:L33" si="8">D$1*D6</f>
+        <f t="shared" ref="L23:L33" si="9">D$1*D6</f>
         <v>16725.472892999998</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M33" si="9">E$1*E6</f>
+        <f t="shared" ref="M23:M33" si="10">E$1*E6</f>
         <v>16725.731584000001</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N33" si="10">F$1*F6</f>
+        <f t="shared" ref="N23:N33" si="11">F$1*F6</f>
         <v>16735.044492000001</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O33" si="11">G$1*G6</f>
+        <f t="shared" ref="O23:O33" si="12">G$1*G6</f>
         <v>16724.955615999999</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P33" si="12">H$1*H6</f>
+        <f t="shared" ref="P23:P33" si="13">H$1*H6</f>
         <v>16732.716009</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q33" si="13">I$1*I6</f>
+        <f t="shared" ref="Q23:Q33" si="14">I$1*I6</f>
         <v>16732.716016000002</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R33" si="14">J$1*J6</f>
+        <f t="shared" ref="R23:R33" si="15">J$1*J6</f>
         <v>16734.527043999999</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S33" si="15">K$1*K6</f>
+        <f t="shared" ref="S23:S33" si="16">K$1*K6</f>
         <v>16724.438324999999</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T33" si="16">L$1*L6</f>
+        <f t="shared" ref="T23:T33" si="17">L$1*L6</f>
         <v>16725.602225999999</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U33" si="17">M$1*M6</f>
+        <f t="shared" ref="U23:U33" si="18">M$1*M6</f>
         <v>16735.044492000001</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V33" si="18">N$1*N6</f>
+        <f t="shared" ref="V23:V33" si="19">N$1*N6</f>
         <v>16724.696971999998</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W33" si="19">O$1*O6</f>
+        <f t="shared" ref="W23:W33" si="20">O$1*O6</f>
         <v>16728.835479000001</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X33" si="20">P$1*P6</f>
+        <f t="shared" ref="X23:X33" si="21">P$1*P6</f>
         <v>16740.995765</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y33" si="21">SUM(J23:X23)</f>
+        <f t="shared" ref="Y23:Y33" si="22">SUM(J23:X23)</f>
         <v>250957.24375499994</v>
       </c>
     </row>
@@ -1840,82 +1852,82 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250954.010843</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.95310243874127</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250957.24434466843</v>
       </c>
       <c r="I24">
         <v>7</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16733.621449999999</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.104090000001</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16725.343571999998</v>
       </c>
       <c r="M24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16725.602256000002</v>
       </c>
       <c r="N24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.527043999999</v>
       </c>
       <c r="O24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16725.3436</v>
       </c>
       <c r="P24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16731.939903000002</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16731.939904000003</v>
       </c>
       <c r="R24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.527043999999</v>
       </c>
       <c r="S24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16723.921040999998</v>
       </c>
       <c r="T24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16725.602225999999</v>
       </c>
       <c r="U24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.915130000001</v>
       </c>
       <c r="V24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16725.084949999997</v>
       </c>
       <c r="W24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16728.706128000002</v>
       </c>
       <c r="X24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16741.125154000001</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250955.30349199998</v>
       </c>
     </row>
@@ -1924,82 +1936,82 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250950.130198</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.94922916199801</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250955.30398966646</v>
       </c>
       <c r="I25">
         <v>8</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16734.268284999998</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.362799999999</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.050362000002</v>
       </c>
       <c r="M25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16724.955615999999</v>
       </c>
       <c r="N25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.397681999999</v>
       </c>
       <c r="O25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16725.602256000002</v>
       </c>
       <c r="P25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16731.681200999999</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.457311999999</v>
       </c>
       <c r="R25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.656405999998</v>
       </c>
       <c r="S25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16724.050362000002</v>
       </c>
       <c r="T25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16725.602225999999</v>
       </c>
       <c r="U25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.397681999999</v>
       </c>
       <c r="V25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16725.343601999997</v>
       </c>
       <c r="W25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16732.198604999998</v>
       </c>
       <c r="X25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16741.383932000001</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250958.40832899997</v>
       </c>
     </row>
@@ -2008,82 +2020,82 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250956.339136</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.95542629659178</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250958.40850346806</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16735.173853999997</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.621509999997</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.050362000002</v>
       </c>
       <c r="M26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16724.696960000001</v>
       </c>
       <c r="N26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.268320000003</v>
       </c>
       <c r="O26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16725.860912</v>
       </c>
       <c r="P26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.586658</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.327959999999</v>
       </c>
       <c r="R26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.915130000001</v>
       </c>
       <c r="S26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16724.050362000002</v>
       </c>
       <c r="T26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16725.343559999998</v>
       </c>
       <c r="U26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.268320000003</v>
       </c>
       <c r="V26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16725.602254000001</v>
       </c>
       <c r="W26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16732.327956000001</v>
       </c>
       <c r="X26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16740.478209000001</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250959.57232700003</v>
       </c>
     </row>
@@ -2092,82 +2104,82 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250958.66724899999</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.95774996400644</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250959.57256686705</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16736.079422999999</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.492154999996</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.567646</v>
       </c>
       <c r="M27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16726.766208000001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.527043999999</v>
       </c>
       <c r="O27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16725.731584000001</v>
       </c>
       <c r="P27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.716009</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.457311999999</v>
       </c>
       <c r="R27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.397681999999</v>
       </c>
       <c r="S27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16724.567646</v>
       </c>
       <c r="T27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16727.412888000003</v>
       </c>
       <c r="U27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.527043999999</v>
       </c>
       <c r="V27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16725.472927999999</v>
       </c>
       <c r="W27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16732.716009</v>
       </c>
       <c r="X27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16740.607598000002</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250966.03917599999</v>
       </c>
     </row>
@@ -2176,82 +2188,82 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250971.60082499997</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.97065864679138</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250966.03929487822</v>
       </c>
       <c r="I28">
         <v>11</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16736.855625</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.362799999999</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16723.921040999998</v>
       </c>
       <c r="M28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16726.636880000002</v>
       </c>
       <c r="N28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16735.432578</v>
       </c>
       <c r="O28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16726.119567999998</v>
       </c>
       <c r="P28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.586658</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.845368000002</v>
       </c>
       <c r="R28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.268320000003</v>
       </c>
       <c r="S28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16723.921040999998</v>
       </c>
       <c r="T28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16727.671554</v>
       </c>
       <c r="U28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.397681999999</v>
       </c>
       <c r="V28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16724.567646</v>
       </c>
       <c r="W28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16732.198604999998</v>
       </c>
       <c r="X28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16741.125154000001</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250965.91052000003</v>
       </c>
     </row>
@@ -2260,82 +2272,82 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250971.34352600001</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.97040184625678</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250965.91064819615</v>
       </c>
       <c r="I29">
         <v>12</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16737.243725999997</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.233444999998</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16726.248819</v>
       </c>
       <c r="M29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16726.248896000001</v>
       </c>
       <c r="N29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16735.56194</v>
       </c>
       <c r="O29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16726.248896000001</v>
       </c>
       <c r="P29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16731.939903000002</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.974720000002</v>
       </c>
       <c r="R29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.138958</v>
       </c>
       <c r="S29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16726.248819</v>
       </c>
       <c r="T29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16726.895555999999</v>
       </c>
       <c r="U29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.656405999998</v>
       </c>
       <c r="V29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16724.696971999998</v>
       </c>
       <c r="W29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16731.681200999999</v>
       </c>
       <c r="X29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16740.736987000004</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250968.75524400003</v>
       </c>
     </row>
@@ -2344,82 +2356,82 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250977.03361200003</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.97608087811938</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250968.75561348299</v>
       </c>
       <c r="I30">
         <v>13</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16737.243725999997</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.233444999998</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16726.248819</v>
       </c>
       <c r="M30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16726.248896000001</v>
       </c>
       <c r="N30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.527043999999</v>
       </c>
       <c r="O30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16726.119567999998</v>
       </c>
       <c r="P30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.457307000001</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.586664000002</v>
       </c>
       <c r="R30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.138958</v>
       </c>
       <c r="S30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16726.248819</v>
       </c>
       <c r="T30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16726.895555999999</v>
       </c>
       <c r="U30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16734.527043999999</v>
       </c>
       <c r="V30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16724.567646</v>
       </c>
       <c r="W30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16732.716009</v>
       </c>
       <c r="X30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16740.995765</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250968.75526599999</v>
       </c>
     </row>
@@ -2428,82 +2440,82 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250977.03362999999</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.97608089608428</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250968.75562248271</v>
       </c>
       <c r="I31">
         <v>14</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16736.984991999998</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.104090000001</v>
       </c>
       <c r="L31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16726.119498</v>
       </c>
       <c r="M31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16726.636880000002</v>
       </c>
       <c r="N31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16735.303216</v>
       </c>
       <c r="O31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16725.990240000003</v>
       </c>
       <c r="P31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.457307000001</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16732.716016000002</v>
       </c>
       <c r="R31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16734.009596</v>
       </c>
       <c r="S31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16726.119498</v>
       </c>
       <c r="T31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16727.283555000002</v>
       </c>
       <c r="U31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16731.422355999999</v>
       </c>
       <c r="V31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16724.438319999997</v>
       </c>
       <c r="W31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16731.939903000002</v>
       </c>
       <c r="X31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16741.125154000001</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250965.65062099995</v>
       </c>
     </row>
@@ -2512,15 +2524,15 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250970.82482799998</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500.96988415273029</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250965.65130467637</v>
       </c>
       <c r="I32">
@@ -2531,63 +2543,63 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="M32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="N32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P32">
+      <c r="O32">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="P32">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="Q32">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="R32">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="S32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="T32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="U32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="V32">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="W32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="X32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="Y32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -2597,67 +2609,67 @@
         <v>16</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="M33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="N33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P33">
+      <c r="O33">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q33">
+      <c r="P33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="Q33">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="R33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T33">
+      <c r="S33">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U33">
+      <c r="T33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="U33">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="V33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="W33">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="X33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="Y33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -2669,10 +2681,1703 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="C1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I1" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L1" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="M1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N1" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P1" s="4">
+        <v>129.38900000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="D2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="F2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P2" s="4">
+        <v>129.387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="H3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I3" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="J3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="M3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P3" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="C4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="H4" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J4" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P4" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="K5" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P5" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="C6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="E6" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="H6" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J6" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O6" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="F7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L7" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M7" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="P7" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="H8" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I8" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="K8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="O8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>129.38800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I9" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>129.381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="C10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="O10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="C11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E11" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="G11" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I11" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L11" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O11" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>129.37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M12" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="N12" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O12" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P12" s="4">
+        <v>129.38300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="J13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="K14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O14" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:P20" si="0">B$1*B1</f>
+        <v>16735.820688999996</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>16727.024889</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>16741.513321000002</v>
+      </c>
+      <c r="R20">
+        <f>SUM(B20:P20)</f>
+        <v>250960.47788799999</v>
+      </c>
+      <c r="T20">
+        <f>SQRT(R20)</f>
+        <v>500.95955713809872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:P33" si="1">B$1*B2</f>
+        <v>16735.950055999998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>16724.826288</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>16741.254543000003</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R33" si="2">SUM(B21:P21)</f>
+        <v>250961.38329900004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>16735.691321999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>16725.3436</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>16724.826288</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>16727.800887000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>250960.99481999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>16734.656385999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>16732.845379999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>16725.731534999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>16735.303216</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R23">
+        <f>SUM(B23:P23)</f>
+        <v>250959.442928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>B$1*B5</f>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>16725.214250999998</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>16735.432578</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>16726.119557999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>250961.38271599999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>16733.750817</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>16725.472892999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>16728.835479000001</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>16740.995765</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>250957.24375499994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>16733.621449999999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>16725.343571999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>16725.3436</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>16725.084949999997</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>16728.706128000002</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>250955.30349199998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>16725.343601999997</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>16741.383932000001</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>250958.40832899997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="C28">
+        <f>C$1*C9</f>
+        <v>16733.621509999997</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>16725.860912</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>16725.343559999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>16725.602254000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>16732.327956000001</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>16740.478209000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>250959.57232700003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>16736.079422999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>16733.492154999996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>16726.766208000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>16727.412888000003</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>250966.03917599999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>16736.855625</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>16735.432578</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>16732.845368000002</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>16727.671554</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>250965.91052000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>16735.56194</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>16732.974720000002</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>16740.736987000004</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>250968.75524400003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>16732.586664000002</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>16740.995765</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>250968.75526599999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>16736.984991999998</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>16735.303216</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>16725.990240000003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>16734.009596</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>16731.422355999999</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>250965.65062099995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,8 +5159,8 @@
         <v>16741.513321000002</v>
       </c>
       <c r="R16" s="6">
-        <f>SUM(B16:P16)</f>
-        <v>250960.47788799999</v>
+        <f>SQRT(SUM(B16:P16))</f>
+        <v>500.95955713809872</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3463,11 +5168,11 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:P17" si="1">POWER(B2, 2)</f>
+        <f>POWER(B2, 2)</f>
         <v>16736.079424</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C17:P17" si="1">POWER(C2, 2)</f>
         <v>16731.681200999999</v>
       </c>
       <c r="D17" s="4">
@@ -3523,8 +5228,8 @@
         <v>16740.995769000001</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ref="R17:R29" si="2">SUM(B17:P17)</f>
-        <v>250962.28884900006</v>
+        <f t="shared" ref="R17:R29" si="2">SQRT(SUM(B17:P17))</f>
+        <v>500.96136462705391</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3532,11 +5237,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:P18" si="3">POWER(B3, 2)</f>
+        <f>POWER(B3, 2)</f>
         <v>16735.561956000005</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C18:P18" si="3">POWER(C3, 2)</f>
         <v>16732.716024999998</v>
       </c>
       <c r="D18" s="4">
@@ -3593,7 +5298,7 @@
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>250961.51206799995</v>
+        <v>500.96058933612727</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3662,7 +5367,7 @@
       </c>
       <c r="R19" s="6">
         <f t="shared" si="2"/>
-        <v>250958.40866200003</v>
+        <v>500.95749187131639</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3731,7 +5436,7 @@
       </c>
       <c r="R20" s="6">
         <f t="shared" si="2"/>
-        <v>250962.28805699997</v>
+        <v>500.9613638365737</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3800,7 +5505,7 @@
       </c>
       <c r="R21" s="6">
         <f t="shared" si="2"/>
-        <v>250954.010843</v>
+        <v>500.95310243874127</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3869,7 +5574,7 @@
       </c>
       <c r="R22" s="6">
         <f t="shared" si="2"/>
-        <v>250950.130198</v>
+        <v>500.94922916199801</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -3938,7 +5643,7 @@
       </c>
       <c r="R23" s="6">
         <f t="shared" si="2"/>
-        <v>250956.339136</v>
+        <v>500.95542629659178</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4007,7 +5712,7 @@
       </c>
       <c r="R24" s="6">
         <f t="shared" si="2"/>
-        <v>250958.66724899999</v>
+        <v>500.95774996400644</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4076,7 +5781,7 @@
       </c>
       <c r="R25" s="6">
         <f t="shared" si="2"/>
-        <v>250971.60082499997</v>
+        <v>500.97065864679138</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4145,7 +5850,7 @@
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
-        <v>250971.34352600001</v>
+        <v>500.97040184625678</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4214,7 +5919,7 @@
       </c>
       <c r="R27" s="6">
         <f t="shared" si="2"/>
-        <v>250977.03361200003</v>
+        <v>500.97608087811938</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4283,7 +5988,7 @@
       </c>
       <c r="R28" s="6">
         <f t="shared" si="2"/>
-        <v>250977.03362999999</v>
+        <v>500.97608089608428</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4352,7 +6057,7 @@
       </c>
       <c r="R29" s="6">
         <f t="shared" si="2"/>
-        <v>250970.82482799998</v>
+        <v>500.96988415273029</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4425,4 +6130,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <f>k!R20/(Q!R16*Q!$R$16)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>ACOS(D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <f>k!R21/(Q!R17*Q!$R$16)</f>
+        <v>0.99999999972957399</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F16" si="0">ACOS(D4)</f>
+        <v>2.3256225614831649E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <f>k!R22/(Q!R18*Q!$R$16)</f>
+        <v>0.99999999937254291</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.5424767786063072E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <f>k!R23/(Q!R19*Q!$R$16)</f>
+        <v>0.99999999862580446</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5.242509962699593E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f>k!R24/(Q!R20*Q!$R$16)</f>
+        <v>0.9999999989844337</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.5068088441624354E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <f>k!R25/(Q!R21*Q!$R$16)</f>
+        <v>0.99999999765032288</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.8551836160057888E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <f>k!R26/(Q!R22*Q!$R$16)</f>
+        <v>0.99999999801691186</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6.2977585517431933E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
+        <f>k!R27/(Q!R23*Q!$R$16)</f>
+        <v>0.99999999930479277</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.72882615631287E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <f>k!R28/(Q!R24*Q!$R$16)</f>
+        <v>0.99999999904420056</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.3721835271348652E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <f>k!R29/(Q!R25*Q!$R$16)</f>
+        <v>0.99999999952631746</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.0779296212646301E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <f>k!R30/(Q!R26*Q!$R$16)</f>
+        <v>0.99999999948918916</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.1962817088393436E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <f>k!R31/(Q!R27*Q!$R$16)</f>
+        <v>0.9999999985277731</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5.4262821458372912E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <f>k!R32/(Q!R28*Q!$R$16)</f>
+        <v>0.99999999857957333</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>5.3299656012306684E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <f>k!R33/(Q!R29*Q!$R$16)</f>
+        <v>0.99999999727581679</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>7.3813050520676882E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="k" sheetId="3" r:id="rId2"/>
-    <sheet name="Q" sheetId="2" r:id="rId3"/>
-    <sheet name="Альфа" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
+    <sheet name="k" sheetId="3" r:id="rId3"/>
+    <sheet name="Q" sheetId="2" r:id="rId4"/>
+    <sheet name="Альфа" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Alpha</t>
   </si>
@@ -66,13 +68,72 @@
   <si>
     <t>альфа</t>
   </si>
+  <si>
+    <t xml:space="preserve">    int z=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ADOTable1-&gt;First();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while (!ADOTable1-&gt;Eof)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         for (int j=0; j&lt;ADOTable1-&gt;FieldCount; j++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Q += pow((ADOTable1-&gt;Fields-&gt;Fields[j]-&gt;AsFloat),2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         float Q1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         if (z == 0)  {Q1 = Q;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Qarray[z] = sqrt(Q)*sqrt(Q1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //StringGrid1-&gt;Cells[3][z+1] = Qarray[z];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      z++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ADOTable1-&gt;Next();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>///////////////////Q = Mu0*Mi.//////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float *Qarray = new float [ADOTable1-&gt;RecordCount];</t>
+  </si>
+  <si>
+    <t>////////////////////////////////////////////////////////////////////////////////</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000000000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -129,7 +190,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,1690 +2748,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="E3:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>129.36699999999999</v>
-      </c>
-      <c r="C1" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="D1" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="E1" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="F1" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="G1" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="H1" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="I1" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="J1" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="K1" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="L1" s="4">
-        <v>129.333</v>
-      </c>
-      <c r="M1" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="N1" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="O1" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="P1" s="4">
-        <v>129.38900000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>129.36799999999999</v>
-      </c>
-      <c r="C2" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="D2" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="F2" s="4">
-        <v>129.36500000000001</v>
-      </c>
-      <c r="G2" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="H2" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="I2" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="J2" s="4">
-        <v>129.36500000000001</v>
-      </c>
-      <c r="K2" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="L2" s="4">
-        <v>129.33500000000001</v>
-      </c>
-      <c r="M2" s="4">
-        <v>129.36500000000001</v>
-      </c>
-      <c r="N2" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="O2" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="P2" s="4">
-        <v>129.387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="E3" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="H3" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="I3" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="J3" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="K3" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="L3" s="4">
-        <v>129.339</v>
-      </c>
-      <c r="M3" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="N3" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="O3" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="P3" s="4">
-        <v>129.38200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="C4" s="4">
-        <v>129.35599999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>129.33500000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="F4" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>129.32</v>
-      </c>
-      <c r="H4" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="J4" s="4">
-        <v>129.36799999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="L4" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="M4" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="N4" s="4">
-        <v>129.32</v>
-      </c>
-      <c r="O4" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="P4" s="4">
-        <v>129.38200000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="D5" s="4">
-        <v>129.33099999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>129.36699999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="I5" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>129.369</v>
-      </c>
-      <c r="K5" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="L5" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="M5" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="N5" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="P5" s="4">
-        <v>129.38200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="C6" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>129.333</v>
-      </c>
-      <c r="E6" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="F6" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="H6" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="J6" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="K6" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="L6" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="M6" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="N6" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="O6" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>129.38499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>129.35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="D7" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="E7" s="4">
-        <v>129.327</v>
-      </c>
-      <c r="F7" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="G7" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>129.35300000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>129.352</v>
-      </c>
-      <c r="J7" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="K7" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="L7" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="M7" s="4">
-        <v>129.36500000000001</v>
-      </c>
-      <c r="N7" s="4">
-        <v>129.32499999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="P7" s="4">
-        <v>129.386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="C8" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="E8" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="F8" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="G8" s="4">
-        <v>129.327</v>
-      </c>
-      <c r="H8" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="I8" s="4">
-        <v>129.35599999999999</v>
-      </c>
-      <c r="J8" s="4">
-        <v>129.363</v>
-      </c>
-      <c r="K8" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="L8" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="M8" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="N8" s="4">
-        <v>129.327</v>
-      </c>
-      <c r="O8" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="P8" s="4">
-        <v>129.38800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="C9" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="E9" s="4">
-        <v>129.32</v>
-      </c>
-      <c r="F9" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="G9" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="I9" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="J9" s="4">
-        <v>129.36500000000001</v>
-      </c>
-      <c r="K9" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="L9" s="4">
-        <v>129.32</v>
-      </c>
-      <c r="M9" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="N9" s="4">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="O9" s="4">
-        <v>129.35599999999999</v>
-      </c>
-      <c r="P9" s="4">
-        <v>129.381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>129.369</v>
-      </c>
-      <c r="C10" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="D10" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>129.33600000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="H10" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>129.35599999999999</v>
-      </c>
-      <c r="J10" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="K10" s="4">
-        <v>129.32599999999999</v>
-      </c>
-      <c r="L10" s="4">
-        <v>129.33600000000001</v>
-      </c>
-      <c r="M10" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="N10" s="4">
-        <v>129.328</v>
-      </c>
-      <c r="O10" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="P10" s="4">
-        <v>129.38200000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>129.375</v>
-      </c>
-      <c r="C11" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="D11" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="E11" s="4">
-        <v>129.33500000000001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>129.369</v>
-      </c>
-      <c r="G11" s="4">
-        <v>129.33099999999999</v>
-      </c>
-      <c r="H11" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="I11" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="J11" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="K11" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="L11" s="4">
-        <v>129.33799999999999</v>
-      </c>
-      <c r="M11" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="N11" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="O11" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="P11" s="4">
-        <v>129.386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>129.37799999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="D12" s="4">
-        <v>129.339</v>
-      </c>
-      <c r="E12" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>129.37</v>
-      </c>
-      <c r="G12" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="H12" s="4">
-        <v>129.35300000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="J12" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>129.339</v>
-      </c>
-      <c r="L12" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="M12" s="4">
-        <v>129.363</v>
-      </c>
-      <c r="N12" s="4">
-        <v>129.322</v>
-      </c>
-      <c r="O12" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="P12" s="4">
-        <v>129.38300000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>129.37799999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>129.339</v>
-      </c>
-      <c r="E13" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>129.33099999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>129.357</v>
-      </c>
-      <c r="I13" s="4">
-        <v>129.357</v>
-      </c>
-      <c r="J13" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="K13" s="4">
-        <v>129.339</v>
-      </c>
-      <c r="L13" s="4">
-        <v>129.33199999999999</v>
-      </c>
-      <c r="M13" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="N13" s="4">
-        <v>129.321</v>
-      </c>
-      <c r="O13" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="P13" s="4">
-        <v>129.38499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>129.376</v>
-      </c>
-      <c r="C14" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="D14" s="4">
-        <v>129.33799999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>129.33500000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>129.36799999999999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>129.33000000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <v>129.357</v>
-      </c>
-      <c r="I14" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="J14" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="K14" s="4">
-        <v>129.33799999999999</v>
-      </c>
-      <c r="L14" s="4">
-        <v>129.33500000000001</v>
-      </c>
-      <c r="M14" s="4">
-        <v>129.33799999999999</v>
-      </c>
-      <c r="N14" s="4">
-        <v>129.32</v>
-      </c>
-      <c r="O14" s="4">
-        <v>129.35300000000001</v>
-      </c>
-      <c r="P14" s="4">
-        <v>129.386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ref="B20:P20" si="0">B$1*B1</f>
-        <v>16735.820688999996</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>16732.716024999998</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>16723.921040999998</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>16725.731584000001</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>16725.731584000001</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>16731.939904000003</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>16723.921040999998</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>16727.024889</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>16725.214275999999</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>16741.513321000002</v>
-      </c>
-      <c r="R20">
-        <f>SUM(B20:P20)</f>
-        <v>250960.47788799999</v>
-      </c>
-      <c r="T20">
-        <f>SQRT(R20)</f>
-        <v>500.95955713809872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:P33" si="1">B$1*B2</f>
-        <v>16735.950055999998</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>16732.198604999998</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>16724.438324999999</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>16724.826288</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>16734.915130000001</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>16725.472927999999</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>16731.939904000003</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>16734.915130000001</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>16724.438324999999</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>16727.283555000002</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>16734.915130000001</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>16725.214275999999</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>16741.254543000003</v>
-      </c>
-      <c r="R21">
-        <f t="shared" ref="R21:R33" si="2">SUM(B21:P21)</f>
-        <v>250961.38329900004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>16735.691321999999</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>16732.716024999998</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>16724.955609000001</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>16725.3436</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>16724.826288</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>16735.044492000001</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>16724.955609000001</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>16727.800887000001</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>16740.607598000002</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>250960.99481999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>16734.656385999999</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>16732.845379999999</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>16725.731534999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>16724.955615999999</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>16735.044492000001</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>16724.696960000001</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>16732.198604999998</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>16731.939904000003</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>16735.303216</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>16725.602225999999</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>16735.044492000001</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
-        <v>16724.438319999997</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>16731.810551999999</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>16740.607598000002</v>
-      </c>
-      <c r="R23">
-        <f>SUM(B23:P23)</f>
-        <v>250959.442928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <f>B$1*B5</f>
-        <v>16734.268284999998</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>16733.233444999998</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>16725.214250999998</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>16725.472927999999</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>16735.173853999997</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>16725.472927999999</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>16732.327959999999</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>16735.432578</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>16724.955609000001</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>16726.119557999999</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>16725.214275999999</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>16740.607598000002</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>250961.38271599999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>16733.750817</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>16732.716024999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>16725.472892999998</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>16725.731584000001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>16735.044492000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>16724.955615999999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>16732.716009</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>16732.716016000002</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>16724.438324999999</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>16725.602225999999</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>16735.044492000001</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>16724.696971999998</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>16728.835479000001</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>16740.995765</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>250957.24375499994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>16733.621449999999</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>16733.104090000001</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>16725.343571999998</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>16725.602256000002</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>16725.3436</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>16731.939903000002</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>16731.939904000003</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>16723.921040999998</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>16725.602225999999</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>16734.915130000001</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>16725.084949999997</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>16728.706128000002</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="1"/>
-        <v>16741.125154000001</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>250955.30349199998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>16734.268284999998</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>16733.362799999999</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>16724.050362000002</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>16724.955615999999</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>16734.397681999999</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>16725.602256000002</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>16732.457311999999</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>16734.656405999998</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>16724.050362000002</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>16725.602225999999</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>16734.397681999999</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>16725.343601999997</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>16732.198604999998</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="1"/>
-        <v>16741.383932000001</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>250958.40832899997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>16735.173853999997</v>
-      </c>
-      <c r="C28">
-        <f>C$1*C9</f>
-        <v>16733.621509999997</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>16724.050362000002</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>16724.696960000001</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>16734.268320000003</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>16725.860912</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>16732.586658</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>16732.327959999999</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>16734.915130000001</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>16724.050362000002</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>16725.343559999998</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>16734.268320000003</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>16725.602254000001</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>16732.327956000001</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>16740.478209000001</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>250959.57232700003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>16736.079422999999</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>16733.492154999996</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>16726.766208000001</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>16725.731584000001</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>16732.716009</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>16732.457311999999</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>16734.397681999999</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>16727.412888000003</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>16725.472927999999</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>16732.716009</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>16740.607598000002</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>250966.03917599999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>16736.855625</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>16733.362799999999</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>16723.921040999998</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>16726.636880000002</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>16735.432578</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>16726.119567999998</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>16732.586658</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>16732.845368000002</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>16734.268320000003</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>16723.921040999998</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>16727.671554</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>16734.397681999999</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
-        <v>16732.198604999998</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="1"/>
-        <v>16741.125154000001</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>250965.91052000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>16737.243725999997</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>16733.233444999998</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>16726.248819</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>16726.248896000001</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>16735.56194</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>16726.248896000001</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>16731.939903000002</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>16732.974720000002</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>16734.138958</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>16726.248819</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>16726.895555999999</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>16734.656405999998</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>16724.696971999998</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
-        <v>16731.681200999999</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="1"/>
-        <v>16740.736987000004</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>250968.75524400003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>16737.243725999997</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>16733.233444999998</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>16726.248819</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>16726.248896000001</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>16726.119567999998</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>16732.457307000001</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>16732.586664000002</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>16734.138958</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>16726.248819</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>16726.895555999999</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>16734.527043999999</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>16724.567646</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>16732.716009</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="1"/>
-        <v>16740.995765</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>250968.75526599999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>14</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>16736.984991999998</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>16733.104090000001</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>16726.119498</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>16726.636880000002</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>16735.303216</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>16725.990240000003</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>16732.457307000001</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>16732.716016000002</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>16734.009596</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>16726.119498</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>16727.283555000002</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>16731.422355999999</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>16724.438319999997</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>16731.939903000002</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="1"/>
-        <v>16741.125154000001</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="2"/>
-        <v>250965.65062099995</v>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4374,19 +2858,1714 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="C1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I1" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L1" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="M1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N1" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P1" s="4">
+        <v>129.38900000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="D2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="F2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P2" s="4">
+        <v>129.387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="H3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I3" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="J3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="M3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P3" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="C4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="H4" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J4" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P4" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="K5" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P5" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="C6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="E6" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="H6" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J6" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O6" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="F7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L7" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M7" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="P7" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="H8" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I8" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="K8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="O8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>129.38800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I9" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>129.381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="C10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="O10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>129.38200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="C11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E11" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="G11" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I11" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L11" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O11" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>129.37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M12" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="N12" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O12" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P12" s="4">
+        <v>129.38300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="J13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>129.38499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="K14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O14" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>129.386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:P20" si="0">B$1*B1</f>
+        <v>16735.820688999996</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>16727.024889</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>16741.513321000002</v>
+      </c>
+      <c r="R20">
+        <f>SUM(B20:P20)</f>
+        <v>250960.47788799999</v>
+      </c>
+      <c r="T20">
+        <f>SQRT(R20)</f>
+        <v>500.95955713809872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:P33" si="1">B$1*B2</f>
+        <v>16735.950055999998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>16724.826288</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>16741.254543000003</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R33" si="2">SUM(B21:P21)</f>
+        <v>250961.38329900004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>16735.691321999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>16725.3436</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>16724.826288</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>16727.800887000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>250960.99481999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>16734.656385999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>16732.845379999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>16725.731534999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>16735.303216</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>16731.810551999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R23">
+        <f>SUM(B23:P23)</f>
+        <v>250959.442928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>B$1*B5</f>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>16725.214250999998</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>16735.432578</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>16724.955609000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>16726.119557999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>16725.214275999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>250961.38271599999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>16733.750817</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>16732.716024999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>16725.472892999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>16724.438324999999</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>16735.044492000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>16728.835479000001</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>16740.995765</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>250957.24375499994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>16733.621449999999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>16725.343571999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>16725.3436</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>16731.939904000003</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>16725.084949999997</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>16728.706128000002</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>250955.30349199998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>16734.268284999998</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>16724.955615999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>16725.602256000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>16725.602225999999</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>16725.343601999997</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>16741.383932000001</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>250958.40832899997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>16735.173853999997</v>
+      </c>
+      <c r="C28">
+        <f>C$1*C9</f>
+        <v>16733.621509999997</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>16724.696960000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>16725.860912</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>16732.327959999999</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>16734.915130000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>16724.050362000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>16725.343559999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>16725.602254000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>16732.327956000001</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>16740.478209000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>250959.57232700003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>16736.079422999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>16733.492154999996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>16726.766208000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>16725.731584000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>16732.457311999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>16727.412888000003</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>16725.472927999999</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>16740.607598000002</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>250966.03917599999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>16736.855625</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>16733.362799999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>16735.432578</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>16732.586658</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>16732.845368000002</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>16734.268320000003</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>16723.921040999998</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>16727.671554</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>16734.397681999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>16732.198604999998</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>250965.91052000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>16735.56194</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>16732.974720000002</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>16734.656405999998</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>16724.696971999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>16731.681200999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>16740.736987000004</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>250968.75524400003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>16737.243725999997</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>16733.233444999998</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>16726.248896000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>16726.119567999998</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>16732.586664000002</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>16734.138958</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>16726.248819</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>16726.895555999999</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>16734.527043999999</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>16724.567646</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>16732.716009</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>16740.995765</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>250968.75526599999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>16736.984991999998</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>16733.104090000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>16726.636880000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>16735.303216</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>16725.990240000003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>16732.457307000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>16732.716016000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>16734.009596</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>16726.119498</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>16727.283555000002</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>16731.422355999999</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>16724.438319999997</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>16731.939903000002</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>16741.125154000001</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>250965.65062099995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.28515625" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -4436,7 +4615,7 @@
         <v>129.38900000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -4486,7 +4665,7 @@
         <v>129.387</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -4536,7 +4715,7 @@
         <v>129.38200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -4586,7 +4765,7 @@
         <v>129.38200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -4636,7 +4815,7 @@
         <v>129.38200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -4686,7 +4865,7 @@
         <v>129.38499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -4736,7 +4915,7 @@
         <v>129.386</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -4786,7 +4965,7 @@
         <v>129.38800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -4836,7 +5015,7 @@
         <v>129.381</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -4885,8 +5064,12 @@
       <c r="P10" s="4">
         <v>129.38200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S10" s="7">
+        <f>POWER(500.959564208984, 2)</f>
+        <v>250960.48497245513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -4936,7 +5119,7 @@
         <v>129.386</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -4986,7 +5169,7 @@
         <v>129.38300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -5036,7 +5219,7 @@
         <v>129.38499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -5086,7 +5269,7 @@
         <v>129.386</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>3</v>
       </c>
@@ -5094,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5158,12 +5341,16 @@
         <f t="shared" si="0"/>
         <v>16741.513321000002</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="9">
         <f>SQRT(SUM(B16:P16))</f>
         <v>500.95955713809872</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f>SUM(B16:P16)</f>
+        <v>250960.47788799999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -5227,12 +5414,16 @@
         <f t="shared" si="1"/>
         <v>16740.995769000001</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="9">
         <f t="shared" ref="R17:R29" si="2">SQRT(SUM(B17:P17))</f>
         <v>500.96136462705391</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f>SUM(B17:P17)</f>
+        <v>250962.28884900006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -5296,771 +5487,783 @@
         <f t="shared" si="3"/>
         <v>16739.701924000001</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="9">
         <f t="shared" si="2"/>
         <v>500.96058933612727</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f t="shared" ref="S18:S20" si="4">SUM(B18:P18)</f>
+        <v>250961.51206799995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" ref="B19:P19" si="4">POWER(B4, 2)</f>
+        <f t="shared" ref="B19:P19" si="5">POWER(B4, 2)</f>
         <v>16733.492163999999</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16732.974736</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16727.542225000001</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16724.179684000002</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16735.561956000005</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16723.662399999997</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16732.716024999998</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16731.939904000003</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16736.079424</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16725.214275999999</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16724.179684000002</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16735.561956000005</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16723.662399999997</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16731.939904000003</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16739.701924000001</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="9">
         <f t="shared" si="2"/>
         <v>500.95749187131639</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>250958.40866200003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ref="B20:P20" si="5">POWER(B5, 2)</f>
+        <f t="shared" ref="B20:P20" si="6">POWER(B5, 2)</f>
         <v>16732.716024999998</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16733.750881000004</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16726.507560999999</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16725.214275999999</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16735.820688999996</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16725.214275999999</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16731.681200999999</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16732.716024999998</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16736.338161</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16725.990241000003</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16725.214275999999</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16734.527043999999</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16725.214275999999</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16731.681200999999</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16739.701924000001</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="9">
         <f t="shared" si="2"/>
         <v>500.9613638365737</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>250962.28805699997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" ref="B21:P21" si="6">POWER(B6, 2)</f>
+        <f t="shared" ref="B21:P21" si="7">POWER(B6, 2)</f>
         <v>16731.681200999999</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16732.716024999998</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16727.024889</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16725.731584000001</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16735.561956000005</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16724.179684000002</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16733.750881000004</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16733.492163999999</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16734.527043999999</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16724.955624999999</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16724.179684000002</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16735.561956000005</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16724.179684000002</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16725.990241000003</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16740.478224999999</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="9">
         <f t="shared" si="2"/>
         <v>500.95310243874127</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ref="B22:P22" si="7">POWER(B7, 2)</f>
+        <f t="shared" ref="B22:P22" si="8">POWER(B7, 2)</f>
         <v>16731.422499999997</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16733.492163999999</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16726.766223999999</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16725.472929</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16734.527043999999</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16724.955624999999</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16732.198609000003</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16731.939904000003</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16734.527043999999</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16723.921040999998</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16724.179684000002</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16735.303225000003</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16724.955624999999</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16725.731584000001</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16740.736996</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="9">
         <f t="shared" si="2"/>
         <v>500.94922916199801</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:P23" si="8">POWER(B8, 2)</f>
+        <f t="shared" ref="B23:P23" si="9">POWER(B8, 2)</f>
         <v>16732.716024999998</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16734.009600000005</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.179684000002</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.179684000002</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16734.268320999996</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16725.472929</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16731.681200999999</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16732.974736</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16734.785768999998</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.179684000002</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16724.179684000002</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16734.268320999996</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16725.472929</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16732.716024999998</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16741.254544000003</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="9">
         <f t="shared" si="2"/>
         <v>500.95542629659178</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" ref="B24:P24" si="9">POWER(B9, 2)</f>
+        <f t="shared" ref="B24:P24" si="10">POWER(B9, 2)</f>
         <v>16734.527043999999</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16734.527043999999</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16724.179684000002</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16723.662399999997</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16734.009600000005</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16725.990241000003</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16733.492163999999</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16732.716024999998</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16735.303225000003</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16724.179684000002</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16723.662399999997</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16734.009600000005</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16725.990241000003</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16732.974736</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16739.443160999999</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="9">
         <f t="shared" si="2"/>
         <v>500.95774996400644</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" ref="B25:P25" si="10">POWER(B10, 2)</f>
+        <f t="shared" ref="B25:P25" si="11">POWER(B10, 2)</f>
         <v>16736.338161</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.268320999996</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16725.214275999999</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16727.800896000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.527043999999</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16725.731584000001</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16733.750881000004</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16732.974736</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.268320999996</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16725.214275999999</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16727.800896000004</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16734.527043999999</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16725.731584000001</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16733.750881000004</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16739.701924000001</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="9">
         <f t="shared" si="2"/>
         <v>500.97065864679138</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" ref="B26:P26" si="11">POWER(B11, 2)</f>
+        <f t="shared" ref="B26:P26" si="12">POWER(B11, 2)</f>
         <v>16737.890625</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16734.009600000005</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16723.921040999998</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16727.542225000001</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16736.338161</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16726.507560999999</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16733.492163999999</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16733.750881000004</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16734.009600000005</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16723.921040999998</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16728.318243999998</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16734.268320999996</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16723.921040999998</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16732.716024999998</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16740.736996</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="9">
         <f t="shared" si="2"/>
         <v>500.97040184625678</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>12</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" ref="B27:P27" si="12">POWER(B12, 2)</f>
+        <f t="shared" ref="B27:P27" si="13">POWER(B12, 2)</f>
         <v>16738.666883999995</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16733.750881000004</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16728.576921</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16726.766223999999</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16736.5969</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16726.766223999999</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16732.198609000003</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16734.009600000005</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16733.750881000004</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16728.576921</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16726.766223999999</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16734.785768999998</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16724.179684000002</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16731.681200999999</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16739.960689000003</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="9">
         <f t="shared" si="2"/>
         <v>500.97608087811938</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>13</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" ref="B28:P28" si="13">POWER(B13, 2)</f>
+        <f t="shared" ref="B28:P28" si="14">POWER(B13, 2)</f>
         <v>16738.666883999995</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16733.750881000004</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16728.576921</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16726.766223999999</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16734.527043999999</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16726.507560999999</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16733.233448999999</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16733.233448999999</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16733.750881000004</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16728.576921</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16726.766223999999</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16734.527043999999</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16723.921040999998</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16733.750881000004</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16740.478224999999</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="9">
         <f t="shared" si="2"/>
         <v>500.97608089608428</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>14</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:P29" si="14">POWER(B14, 2)</f>
+        <f t="shared" ref="B29:P29" si="15">POWER(B14, 2)</f>
         <v>16738.149376000001</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16733.492163999999</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16728.318243999998</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16727.542225000001</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16736.079424</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16726.248900000002</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16733.233448999999</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16733.492163999999</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16733.492163999999</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16728.318243999998</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16727.542225000001</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16728.318243999998</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16723.662399999997</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16732.198609000003</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16740.736996</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="9">
         <f t="shared" si="2"/>
         <v>500.96988415273029</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6129,21 +6332,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6362,7 @@
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <f>k!R20/(Q!R16*Q!$R$16)</f>
         <v>1</v>
       </c>
@@ -6168,11 +6372,11 @@
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <f>k!R21/(Q!R17*Q!$R$16)</f>
         <v>0.99999999972957399</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4">
         <f t="shared" ref="F4:F16" si="0">ACOS(D4)</f>
         <v>2.3256225614831649E-5</v>
       </c>
@@ -6301,4 +6505,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Alpha</t>
   </si>
@@ -125,15 +125,18 @@
   <si>
     <t>////////////////////////////////////////////////////////////////////////////////</t>
   </si>
+  <si>
+    <t>Q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,13 +193,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2858,15 +2862,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3570,12 +3574,12 @@
         <v>129.386</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -3643,12 +3647,8 @@
         <f>SUM(B20:P20)</f>
         <v>250960.47788799999</v>
       </c>
-      <c r="T20">
-        <f>SQRT(R20)</f>
-        <v>500.95955713809872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>250961.38329900004</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>250960.99481999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>250959.442928</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>250961.38271599999</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>250957.24375499994</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>7</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>250955.30349199998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>250958.40832899997</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>250959.57232700003</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>10</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>250966.03917599999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>11</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>250965.91052000003</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>12</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>250968.75524400003</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>13</v>
       </c>
@@ -4547,15 +4547,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,10 +5065,7 @@
       <c r="P10" s="4">
         <v>129.38200000000001</v>
       </c>
-      <c r="S10" s="7">
-        <f>POWER(500.959564208984, 2)</f>
-        <v>250960.48497245513</v>
-      </c>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5118,6 +5116,10 @@
       <c r="P11" s="4">
         <v>129.386</v>
       </c>
+      <c r="S11">
+        <f>SUM(B20:P20)</f>
+        <v>250962.28805699997</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5276,6 +5278,9 @@
       <c r="R15" t="s">
         <v>2</v>
       </c>
+      <c r="S15" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5345,8 +5350,8 @@
         <f>SQRT(SUM(B16:P16))</f>
         <v>500.95955713809872</v>
       </c>
-      <c r="S16">
-        <f>SUM(B16:P16)</f>
+      <c r="S16" s="10">
+        <f>$R$16*R16</f>
         <v>250960.47788799999</v>
       </c>
     </row>
@@ -5418,9 +5423,9 @@
         <f t="shared" ref="R17:R29" si="2">SQRT(SUM(B17:P17))</f>
         <v>500.96136462705391</v>
       </c>
-      <c r="S17">
-        <f>SUM(B17:P17)</f>
-        <v>250962.28884900006</v>
+      <c r="S17" s="10">
+        <f t="shared" ref="S17:S29" si="3">$R$16*R17</f>
+        <v>250961.38336686653</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5432,68 +5437,68 @@
         <v>16735.561956000005</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:P18" si="3">POWER(C3, 2)</f>
+        <f t="shared" ref="C18:P18" si="4">POWER(C3, 2)</f>
         <v>16732.716024999998</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16725.990241000003</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16724.955624999999</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16734.527043999999</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16723.921040999998</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16731.939904000003</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16731.681200999999</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16735.561956000005</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16725.990241000003</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16728.576921</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16734.527043999999</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16723.921040999998</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16731.939904000003</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16739.701924000001</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="2"/>
         <v>500.96058933612727</v>
       </c>
-      <c r="S18">
-        <f t="shared" ref="S18:S20" si="4">SUM(B18:P18)</f>
-        <v>250961.51206799995</v>
+      <c r="S18" s="10">
+        <f t="shared" si="3"/>
+        <v>250960.99497746726</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5564,9 +5569,9 @@
         <f t="shared" si="2"/>
         <v>500.95749187131639</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
-        <v>250958.40866200003</v>
+      <c r="S19" s="10">
+        <f t="shared" si="3"/>
+        <v>250959.44327286736</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5637,9 +5642,9 @@
         <f t="shared" si="2"/>
         <v>500.9613638365737</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
-        <v>250962.28805699997</v>
+      <c r="S20" s="10">
+        <f t="shared" si="3"/>
+        <v>250961.38297086791</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5710,6 +5715,10 @@
         <f t="shared" si="2"/>
         <v>500.95310243874127</v>
       </c>
+      <c r="S21" s="10">
+        <f t="shared" si="3"/>
+        <v>250957.24434466843</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -5779,6 +5788,10 @@
         <f t="shared" si="2"/>
         <v>500.94922916199801</v>
       </c>
+      <c r="S22" s="10">
+        <f t="shared" si="3"/>
+        <v>250955.30398966646</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -5848,6 +5861,10 @@
         <f t="shared" si="2"/>
         <v>500.95542629659178</v>
       </c>
+      <c r="S23" s="10">
+        <f t="shared" si="3"/>
+        <v>250958.40850346806</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -5917,6 +5934,10 @@
         <f t="shared" si="2"/>
         <v>500.95774996400644</v>
       </c>
+      <c r="S24" s="10">
+        <f t="shared" si="3"/>
+        <v>250959.57256686705</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -5986,6 +6007,10 @@
         <f t="shared" si="2"/>
         <v>500.97065864679138</v>
       </c>
+      <c r="S25" s="10">
+        <f t="shared" si="3"/>
+        <v>250966.03929487822</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -6055,6 +6080,10 @@
         <f t="shared" si="2"/>
         <v>500.97040184625678</v>
       </c>
+      <c r="S26" s="10">
+        <f t="shared" si="3"/>
+        <v>250965.91064819615</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -6124,6 +6153,10 @@
         <f t="shared" si="2"/>
         <v>500.97608087811938</v>
       </c>
+      <c r="S27" s="10">
+        <f t="shared" si="3"/>
+        <v>250968.75561348299</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -6193,6 +6226,10 @@
         <f t="shared" si="2"/>
         <v>500.97608089608428</v>
       </c>
+      <c r="S28" s="10">
+        <f t="shared" si="3"/>
+        <v>250968.75562248271</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -6261,6 +6298,10 @@
       <c r="R29" s="9">
         <f t="shared" si="2"/>
         <v>500.96988415273029</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="3"/>
+        <v>250965.65130467637</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -6330,6 +6371,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6340,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6357,13 +6406,13 @@
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" s="8">
-        <f>k!R20/(Q!R16*Q!$R$16)</f>
+        <f>k!R20/Q!S16</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -6373,7 +6422,7 @@
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>k!R21/(Q!R17*Q!$R$16)</f>
+        <f>k!R21/Q!S17</f>
         <v>0.99999999972957399</v>
       </c>
       <c r="F4">
@@ -6382,8 +6431,8 @@
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
-        <f>k!R22/(Q!R18*Q!$R$16)</f>
+      <c r="D5" s="8">
+        <f>k!R22/Q!S18</f>
         <v>0.99999999937254291</v>
       </c>
       <c r="F5">
@@ -6392,8 +6441,8 @@
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="5">
-        <f>k!R23/(Q!R19*Q!$R$16)</f>
+      <c r="D6" s="8">
+        <f>k!R23/Q!S19</f>
         <v>0.99999999862580446</v>
       </c>
       <c r="F6">
@@ -6402,8 +6451,8 @@
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
-        <f>k!R24/(Q!R20*Q!$R$16)</f>
+      <c r="D7" s="8">
+        <f>k!R24/Q!S20</f>
         <v>0.9999999989844337</v>
       </c>
       <c r="F7">
@@ -6412,8 +6461,8 @@
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
-        <f>k!R25/(Q!R21*Q!$R$16)</f>
+      <c r="D8" s="8">
+        <f>k!R25/Q!S21</f>
         <v>0.99999999765032288</v>
       </c>
       <c r="F8">
@@ -6422,8 +6471,8 @@
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
-        <f>k!R26/(Q!R22*Q!$R$16)</f>
+      <c r="D9" s="8">
+        <f>k!R26/Q!S22</f>
         <v>0.99999999801691186</v>
       </c>
       <c r="F9">
@@ -6432,8 +6481,8 @@
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
-        <f>k!R27/(Q!R23*Q!$R$16)</f>
+      <c r="D10" s="8">
+        <f>k!R27/Q!S23</f>
         <v>0.99999999930479277</v>
       </c>
       <c r="F10">
@@ -6442,8 +6491,8 @@
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
-        <f>k!R28/(Q!R24*Q!$R$16)</f>
+      <c r="D11" s="8">
+        <f>k!R28/Q!S24</f>
         <v>0.99999999904420056</v>
       </c>
       <c r="F11">
@@ -6452,8 +6501,8 @@
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="5">
-        <f>k!R29/(Q!R25*Q!$R$16)</f>
+      <c r="D12" s="8">
+        <f>k!R29/Q!S25</f>
         <v>0.99999999952631746</v>
       </c>
       <c r="F12">
@@ -6462,8 +6511,8 @@
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
-        <f>k!R30/(Q!R26*Q!$R$16)</f>
+      <c r="D13" s="8">
+        <f>k!R30/Q!S26</f>
         <v>0.99999999948918916</v>
       </c>
       <c r="F13">
@@ -6472,8 +6521,8 @@
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
-        <f>k!R31/(Q!R27*Q!$R$16)</f>
+      <c r="D14" s="8">
+        <f>k!R31/Q!S27</f>
         <v>0.9999999985277731</v>
       </c>
       <c r="F14">
@@ -6482,8 +6531,8 @@
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="5">
-        <f>k!R32/(Q!R28*Q!$R$16)</f>
+      <c r="D15" s="8">
+        <f>k!R32/Q!S28</f>
         <v>0.99999999857957333</v>
       </c>
       <c r="F15">
@@ -6492,8 +6541,8 @@
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
-        <f>k!R33/(Q!R29*Q!$R$16)</f>
+      <c r="D16" s="8">
+        <f>k!R33/Q!S29</f>
         <v>0.99999999727581679</v>
       </c>
       <c r="F16">

--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="k" sheetId="3" r:id="rId3"/>
     <sheet name="Q" sheetId="2" r:id="rId4"/>
     <sheet name="Альфа" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист3" sheetId="6" r:id="rId6"/>
+    <sheet name="второй уровень" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Alpha</t>
   </si>
@@ -127,6 +127,108 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мю </t>
+  </si>
+  <si>
+    <t>Альфа</t>
+  </si>
+  <si>
+    <t>расчеты второгоо урвоня (альфа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //Расчет Алфьа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //Альфа=arccos(k/Q); k = (h0)*(hi), Q = (Mu0*Mi)^2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //////Одномерный динамический массив, содержит 1-ю строку StringGrid2///////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double *MoArray = new double [StringGrid2-&gt;ColCount-1]; //массив Мю нулевого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for (int i=1; i&lt;StringGrid2-&gt;ColCount-1; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       MoArray[i-1] = StrToFloat(StringGrid2-&gt;Cells[1][i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ////k = (h0)*(hi); Умножаем 1строчный массив на ячейки ADOTable1////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double k=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double *AlArray = new double [StringGrid2-&gt;ColCount-1]; //массив значений альфа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for(int f=0; f&lt;StringGrid2-&gt;RowCount-1; f++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    k=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       for (int j=1; j&lt;StringGrid2-&gt;ColCount-1; j++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          k += MoArray[j-1] * StrToFloat(StringGrid2-&gt;Cells[j][f+1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AlArray[f] = acos(k/(MuArray[0]*MuArray[f]));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      StringGrid3-&gt;Cells[2][f+1] = FloatToStr(acos(k/(MuArray[0]*MuArray[f])));//Вывод ALpha в таблицу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ///END Альфа///</t>
+  </si>
+  <si>
+    <t>StringGrid2-&gt;ColCount;</t>
+  </si>
+  <si>
+    <t>StringGrid2-&gt;RowCount;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //Ðàñ÷åò Àëôüà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //Àëüôà=arccos(k/Q); k = (h0)*(hi), Q = (Mu0*Mi)^2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //////Îäíîìåðíûé äèíàìè÷åñêèé ìàññèâ, ñîäåðæèò 1-þ ñòðîêó StringGrid2///////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double *MoArray = new double [StringGrid2-&gt;ColCount-1]; //ìàññèâ Ìþ íóëåâîãî</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ////k = (h0)*(hi); Óìíîæàåì 1ñòðî÷íûé ìàññèâ íà ÿ÷åéêè ADOTable1////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double *AlArray = new double [ADOTable1-&gt;RecordCount]; //ìàññèâ çíà÷åíèé àëüôà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     //StringGrid3-&gt;Cells[3][f+1] = k;//"Mu+";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     //StringGrid3-&gt;Cells[4][f+1] = (MuArray[0]*MuArray[f]);//"Mu-";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     AlArray[f] = acos(k/(MuArray[0]*MuArray[f]));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     StringGrid3-&gt;Cells[2][f+1] = FloatToStr((k/(MuArray[0]*MuArray[f])));//Âûâîä ALpha â òàáëèöó    acos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ///END Àëüôà///</t>
   </si>
 </sst>
 </file>
@@ -507,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,75 +2776,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="I33">
-        <v>16</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2752,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:E21"/>
+  <dimension ref="E3:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,6 +2888,265 @@
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -6558,12 +6852,1017 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="C1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I1" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L1" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="M1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N1" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P1" s="4">
+        <v>129.38900000000001</v>
+      </c>
+      <c r="R1" s="4">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="T1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U1" s="4">
+        <v>129.321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="D2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="F2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P2" s="4">
+        <v>129.387</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="T2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="U2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="H3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="I3" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="J3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="M3" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O3" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P3" s="4">
+        <v>129.38200000000001</v>
+      </c>
+      <c r="R3" s="4">
+        <v>3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="T3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="C4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="H4" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J4" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M4" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O4" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="P4" s="4">
+        <v>129.38200000000001</v>
+      </c>
+      <c r="R4" s="4">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="T4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="U4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="K5" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P5" s="4">
+        <v>129.38200000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="C6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="E6" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="H6" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J6" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M6" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O6" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>129.38499999999999</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="T6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>129.333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="F7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J7" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L7" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M7" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>129.32499999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="P7" s="4">
+        <v>129.386</v>
+      </c>
+      <c r="R7" s="4">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="T7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="U7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="F8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="H8" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I8" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="K8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L8" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="M8" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>129.327</v>
+      </c>
+      <c r="O8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>129.38800000000001</v>
+      </c>
+      <c r="R8" s="4">
+        <v>8</v>
+      </c>
+      <c r="S8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="U8" s="4">
+        <v>129.322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="E9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I9" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>129.36500000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="L9" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>129.32900000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>129.381</v>
+      </c>
+      <c r="R9" s="4">
+        <v>9</v>
+      </c>
+      <c r="S9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="T9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="U9" s="4">
+        <v>129.322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="C10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="O10" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>129.38200000000001</v>
+      </c>
+      <c r="R10" s="4">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="T10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="U10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="C11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E11" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="G11" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="I11" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L11" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O11" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>129.386</v>
+      </c>
+      <c r="R11" s="4">
+        <v>11</v>
+      </c>
+      <c r="S11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="T11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="U11" s="4">
+        <v>129.321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>129.37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L12" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M12" s="4">
+        <v>129.363</v>
+      </c>
+      <c r="N12" s="4">
+        <v>129.322</v>
+      </c>
+      <c r="O12" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P12" s="4">
+        <v>129.38300000000001</v>
+      </c>
+      <c r="R12" s="4">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="T12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U12" s="4">
+        <v>129.339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I13" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="J13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>129.339</v>
+      </c>
+      <c r="L13" s="4">
+        <v>129.33199999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N13" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="O13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>129.38499999999999</v>
+      </c>
+      <c r="R13" s="4">
+        <v>13</v>
+      </c>
+      <c r="S13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="T13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U13" s="4">
+        <v>129.339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="D14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>129.357</v>
+      </c>
+      <c r="I14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="J14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="K14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="O14" s="4">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>129.386</v>
+      </c>
+      <c r="R14" s="4">
+        <v>14</v>
+      </c>
+      <c r="S14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="T14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="U14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>SQRT(POWER(SUM(S1:U1), 2))</f>
+        <v>388.04300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R31" si="0">SQRT(POWER(SUM(S2:U2), 2))</f>
+        <v>388.04399999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>388.05</v>
+      </c>
+    </row>
+    <row r="21" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="4">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>388.04899999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="4">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>388.04499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="4">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>388.03899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>388.03999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q25" s="4">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>388.03700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>388.04599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="4">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>388.05600000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>388.05600000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>388.07599999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>388.07599999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="4">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>388.072</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Alpha</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t xml:space="preserve">    ///END Àëüôà///</t>
+  </si>
+  <si>
+    <t>Сумма Мю</t>
   </si>
 </sst>
 </file>
@@ -607,17 +610,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
@@ -1956,67 +1961,67 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J33" si="7">B$1*B6</f>
+        <f t="shared" ref="J23:J31" si="7">B$1*B6</f>
         <v>16733.750817</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K33" si="8">C$1*C6</f>
+        <f t="shared" ref="K23:K32" si="8">C$1*C6</f>
         <v>16732.716024999998</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:L33" si="9">D$1*D6</f>
+        <f t="shared" ref="L23:L32" si="9">D$1*D6</f>
         <v>16725.472892999998</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M33" si="10">E$1*E6</f>
+        <f t="shared" ref="M23:M32" si="10">E$1*E6</f>
         <v>16725.731584000001</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N33" si="11">F$1*F6</f>
+        <f t="shared" ref="N23:N32" si="11">F$1*F6</f>
         <v>16735.044492000001</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O33" si="12">G$1*G6</f>
+        <f t="shared" ref="O23:O32" si="12">G$1*G6</f>
         <v>16724.955615999999</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P33" si="13">H$1*H6</f>
+        <f t="shared" ref="P23:P32" si="13">H$1*H6</f>
         <v>16732.716009</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q33" si="14">I$1*I6</f>
+        <f t="shared" ref="Q23:Q32" si="14">I$1*I6</f>
         <v>16732.716016000002</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R33" si="15">J$1*J6</f>
+        <f t="shared" ref="R23:R32" si="15">J$1*J6</f>
         <v>16734.527043999999</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S33" si="16">K$1*K6</f>
+        <f t="shared" ref="S23:S32" si="16">K$1*K6</f>
         <v>16724.438324999999</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T33" si="17">L$1*L6</f>
+        <f t="shared" ref="T23:T32" si="17">L$1*L6</f>
         <v>16725.602225999999</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U33" si="18">M$1*M6</f>
+        <f t="shared" ref="U23:U32" si="18">M$1*M6</f>
         <v>16735.044492000001</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V33" si="19">N$1*N6</f>
+        <f t="shared" ref="V23:V32" si="19">N$1*N6</f>
         <v>16724.696971999998</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W33" si="20">O$1*O6</f>
+        <f t="shared" ref="W23:W32" si="20">O$1*O6</f>
         <v>16728.835479000001</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X33" si="21">P$1*P6</f>
+        <f t="shared" ref="X23:X32" si="21">P$1*P6</f>
         <v>16740.995765</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y33" si="22">SUM(J23:X23)</f>
+        <f t="shared" ref="Y23:Y32" si="22">SUM(J23:X23)</f>
         <v>250957.24375499994</v>
       </c>
     </row>
@@ -2776,8 +2781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C19:C32)</f>
+        <v>7013.4789810904895</v>
+      </c>
+      <c r="D35">
+        <f>C35/14</f>
+        <v>500.96278436360637</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2789,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E69" sqref="E69:E95"/>
     </sheetView>
   </sheetViews>

--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Q" sheetId="2" r:id="rId4"/>
     <sheet name="Альфа" sheetId="4" r:id="rId5"/>
     <sheet name="второй уровень" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Alpha</t>
   </si>
@@ -233,6 +235,12 @@
   <si>
     <t>Сумма Мю</t>
   </si>
+  <si>
+    <t>double MuPrB = ((SumMu-MuArray[0])/StrToFloat(StringGrid2-&gt;RowCount-1)) * A +(1-A) * MuPrArray[StringGrid2-&gt;RowCount-1]; //Ìþ ïîñëåäíåå</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +251,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +267,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +326,23 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -612,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="E69" sqref="E69:E95"/>
     </sheetView>
   </sheetViews>
@@ -3176,7 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -4867,7 +4904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -6699,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:F16"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6738,7 +6775,7 @@
         <v>0.99999999972957399</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="0">ACOS(D4)</f>
+        <f>ACOS(D4)</f>
         <v>2.3256225614831649E-5</v>
       </c>
     </row>
@@ -6748,7 +6785,7 @@
         <v>0.99999999937254291</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5:F16" si="0">ACOS(D5)</f>
         <v>3.5424767786063072E-5</v>
       </c>
     </row>
@@ -6860,6 +6897,11 @@
       <c r="F16">
         <f t="shared" si="0"/>
         <v>7.3813050520676882E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6872,15 +6914,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="B1:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="T1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U1" s="4">
+        <v>129.321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>129.36799999999999</v>
+      </c>
+      <c r="T2" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="U2" s="4">
+        <v>129.32499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <v>3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>129.36600000000001</v>
+      </c>
+      <c r="T3" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U3" s="4">
+        <v>129.32900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="T4" s="4">
+        <v>129.35599999999999</v>
+      </c>
+      <c r="U4" s="4">
+        <v>129.33500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>129.33099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="T6" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>129.333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4">
+        <v>129.35</v>
+      </c>
+      <c r="T7" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="U7" s="4">
+        <v>129.33199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="R8" s="4">
+        <v>8</v>
+      </c>
+      <c r="S8" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="U8" s="4">
+        <v>129.322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="R9" s="4">
+        <v>9</v>
+      </c>
+      <c r="S9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="T9" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="U9" s="4">
+        <v>129.322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4">
+        <v>129.369</v>
+      </c>
+      <c r="T10" s="4">
+        <v>129.36099999999999</v>
+      </c>
+      <c r="U10" s="4">
+        <v>129.32599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="R11" s="4">
+        <v>11</v>
+      </c>
+      <c r="S11" s="4">
+        <v>129.375</v>
+      </c>
+      <c r="T11" s="4">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="U11" s="4">
+        <v>129.321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="T12" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U12" s="4">
+        <v>129.339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="R13" s="4">
+        <v>13</v>
+      </c>
+      <c r="S13" s="4">
+        <v>129.37799999999999</v>
+      </c>
+      <c r="T13" s="4">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="U13" s="4">
+        <v>129.339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="R14" s="4">
+        <v>14</v>
+      </c>
+      <c r="S14" s="4">
+        <v>129.376</v>
+      </c>
+      <c r="T14" s="4">
+        <v>129.358</v>
+      </c>
+      <c r="U14" s="4">
+        <v>129.33799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>SQRT(POWER(SUM(S1:U1), 2))</f>
+        <v>388.04300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R31" si="0">SQRT(POWER(SUM(S2:U2), 2))</f>
+        <v>388.04399999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>388.05</v>
+      </c>
+    </row>
+    <row r="21" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="4">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>388.04899999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="4">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>388.04499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="4">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>388.03899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>388.03999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q25" s="4">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>388.03700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>388.04599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="4">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>388.05600000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>388.05600000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>388.07599999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>388.07599999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="4">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>388.072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>1</v>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="4">
         <v>129.36699999999999</v>
@@ -6927,960 +7361,1775 @@
       <c r="P1" s="4">
         <v>129.38900000000001</v>
       </c>
-      <c r="R1" s="4">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4">
-        <v>129.36699999999999</v>
-      </c>
-      <c r="T1" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="U1" s="4">
-        <v>129.321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>129.36799999999999</v>
+        <f t="shared" ref="B2:B14" si="0">B1+$K$17</f>
+        <v>129.36704999999998</v>
       </c>
       <c r="C2" s="4">
-        <v>129.351</v>
+        <f t="shared" ref="C2:C14" si="1">C1+$K$17</f>
+        <v>129.35504999999998</v>
       </c>
       <c r="D2" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" ref="D2:D14" si="2">D1+$K$17</f>
+        <v>129.32104999999999</v>
       </c>
       <c r="E2" s="4">
-        <v>129.321</v>
+        <f t="shared" ref="E2:E14" si="3">E1+$K$17</f>
+        <v>129.32804999999999</v>
       </c>
       <c r="F2" s="4">
-        <v>129.36500000000001</v>
+        <f t="shared" ref="F2:F14" si="4">F1+$K$17</f>
+        <v>129.36204999999998</v>
       </c>
       <c r="G2" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" ref="G2:G14" si="5">G1+$K$17</f>
+        <v>129.32804999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>129.352</v>
+        <f t="shared" ref="H2:H14" si="6">H1+$K$17</f>
+        <v>129.35104999999999</v>
       </c>
       <c r="I2" s="4">
-        <v>129.352</v>
+        <f t="shared" ref="I2:I14" si="7">I1+$K$17</f>
+        <v>129.35204999999999</v>
       </c>
       <c r="J2" s="4">
-        <v>129.36500000000001</v>
+        <f t="shared" ref="J2:J14" si="8">J1+$K$17</f>
+        <v>129.36204999999998</v>
       </c>
       <c r="K2" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" ref="K2:K14" si="9">K1+$K$17</f>
+        <v>129.32104999999999</v>
       </c>
       <c r="L2" s="4">
-        <v>129.33500000000001</v>
+        <f t="shared" ref="L2:L14" si="10">L1+$K$17</f>
+        <v>129.33304999999999</v>
       </c>
       <c r="M2" s="4">
-        <v>129.36500000000001</v>
+        <f t="shared" ref="M2:M14" si="11">M1+$K$17</f>
+        <v>129.36204999999998</v>
       </c>
       <c r="N2" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" ref="N2:N14" si="12">N1+$K$17</f>
+        <v>129.32604999999998</v>
       </c>
       <c r="O2" s="4">
-        <v>129.352</v>
+        <f t="shared" ref="O2:O14" si="13">O1+$K$17</f>
+        <v>129.35104999999999</v>
       </c>
       <c r="P2" s="4">
-        <v>129.387</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>129.36799999999999</v>
-      </c>
-      <c r="T2" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="U2" s="4">
-        <v>129.32499999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P2:P14" si="14">P1+$K$17</f>
+        <v>129.38905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="0"/>
+        <v>129.36709999999997</v>
       </c>
       <c r="C3" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="1"/>
+        <v>129.35509999999996</v>
       </c>
       <c r="D3" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="2"/>
+        <v>129.32109999999997</v>
       </c>
       <c r="E3" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" si="3"/>
+        <v>129.32809999999998</v>
       </c>
       <c r="F3" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36209999999997</v>
       </c>
       <c r="G3" s="4">
-        <v>129.321</v>
+        <f t="shared" si="5"/>
+        <v>129.32809999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>129.352</v>
+        <f t="shared" si="6"/>
+        <v>129.35109999999997</v>
       </c>
       <c r="I3" s="4">
-        <v>129.351</v>
+        <f t="shared" si="7"/>
+        <v>129.35209999999998</v>
       </c>
       <c r="J3" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="8"/>
+        <v>129.36209999999997</v>
       </c>
       <c r="K3" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="9"/>
+        <v>129.32109999999997</v>
       </c>
       <c r="L3" s="4">
-        <v>129.339</v>
+        <f t="shared" si="10"/>
+        <v>129.33309999999997</v>
       </c>
       <c r="M3" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36209999999997</v>
       </c>
       <c r="N3" s="4">
-        <v>129.321</v>
+        <f t="shared" si="12"/>
+        <v>129.32609999999997</v>
       </c>
       <c r="O3" s="4">
-        <v>129.352</v>
+        <f t="shared" si="13"/>
+        <v>129.35109999999997</v>
       </c>
       <c r="P3" s="4">
-        <v>129.38200000000001</v>
-      </c>
-      <c r="R3" s="4">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4">
-        <v>129.36600000000001</v>
-      </c>
-      <c r="T3" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="U3" s="4">
-        <v>129.32900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38909999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>129.358</v>
+        <f t="shared" si="0"/>
+        <v>129.36714999999995</v>
       </c>
       <c r="C4" s="4">
-        <v>129.35599999999999</v>
+        <f t="shared" si="1"/>
+        <v>129.35514999999995</v>
       </c>
       <c r="D4" s="4">
-        <v>129.33500000000001</v>
+        <f t="shared" si="2"/>
+        <v>129.32114999999996</v>
       </c>
       <c r="E4" s="4">
-        <v>129.322</v>
+        <f t="shared" si="3"/>
+        <v>129.32814999999997</v>
       </c>
       <c r="F4" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="4"/>
+        <v>129.36214999999996</v>
       </c>
       <c r="G4" s="4">
-        <v>129.32</v>
+        <f t="shared" si="5"/>
+        <v>129.32814999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="6"/>
+        <v>129.35114999999996</v>
       </c>
       <c r="I4" s="4">
-        <v>129.352</v>
+        <f t="shared" si="7"/>
+        <v>129.35214999999997</v>
       </c>
       <c r="J4" s="4">
-        <v>129.36799999999999</v>
+        <f t="shared" si="8"/>
+        <v>129.36214999999996</v>
       </c>
       <c r="K4" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="9"/>
+        <v>129.32114999999996</v>
       </c>
       <c r="L4" s="4">
-        <v>129.322</v>
+        <f t="shared" si="10"/>
+        <v>129.33314999999996</v>
       </c>
       <c r="M4" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="11"/>
+        <v>129.36214999999996</v>
       </c>
       <c r="N4" s="4">
-        <v>129.32</v>
+        <f t="shared" si="12"/>
+        <v>129.32614999999996</v>
       </c>
       <c r="O4" s="4">
-        <v>129.352</v>
+        <f t="shared" si="13"/>
+        <v>129.35114999999996</v>
       </c>
       <c r="P4" s="4">
-        <v>129.38200000000001</v>
-      </c>
-      <c r="R4" s="4">
-        <v>4</v>
-      </c>
-      <c r="S4" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="T4" s="4">
-        <v>129.35599999999999</v>
-      </c>
-      <c r="U4" s="4">
-        <v>129.33500000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38914999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="0"/>
+        <v>129.36719999999994</v>
       </c>
       <c r="C5" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="1"/>
+        <v>129.35519999999994</v>
       </c>
       <c r="D5" s="4">
-        <v>129.33099999999999</v>
+        <f t="shared" si="2"/>
+        <v>129.32119999999995</v>
       </c>
       <c r="E5" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="3"/>
+        <v>129.32819999999995</v>
       </c>
       <c r="F5" s="4">
-        <v>129.36699999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36219999999994</v>
       </c>
       <c r="G5" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="5"/>
+        <v>129.32819999999995</v>
       </c>
       <c r="H5" s="4">
-        <v>129.351</v>
+        <f t="shared" si="6"/>
+        <v>129.35119999999995</v>
       </c>
       <c r="I5" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="7"/>
+        <v>129.35219999999995</v>
       </c>
       <c r="J5" s="4">
-        <v>129.369</v>
+        <f t="shared" si="8"/>
+        <v>129.36219999999994</v>
       </c>
       <c r="K5" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="9"/>
+        <v>129.32119999999995</v>
       </c>
       <c r="L5" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="10"/>
+        <v>129.33319999999995</v>
       </c>
       <c r="M5" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36219999999994</v>
       </c>
       <c r="N5" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="12"/>
+        <v>129.32619999999994</v>
       </c>
       <c r="O5" s="4">
-        <v>129.351</v>
+        <f t="shared" si="13"/>
+        <v>129.35119999999995</v>
       </c>
       <c r="P5" s="4">
-        <v>129.38200000000001</v>
-      </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="T5" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="U5" s="4">
-        <v>129.33099999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38919999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>129.351</v>
+        <f t="shared" si="0"/>
+        <v>129.36724999999993</v>
       </c>
       <c r="C6" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="1"/>
+        <v>129.35524999999993</v>
       </c>
       <c r="D6" s="4">
-        <v>129.333</v>
+        <f t="shared" si="2"/>
+        <v>129.32124999999994</v>
       </c>
       <c r="E6" s="4">
-        <v>129.328</v>
+        <f t="shared" si="3"/>
+        <v>129.32824999999994</v>
       </c>
       <c r="F6" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="4"/>
+        <v>129.36224999999993</v>
       </c>
       <c r="G6" s="4">
-        <v>129.322</v>
+        <f t="shared" si="5"/>
+        <v>129.32824999999994</v>
       </c>
       <c r="H6" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="6"/>
+        <v>129.35124999999994</v>
       </c>
       <c r="I6" s="4">
-        <v>129.358</v>
+        <f t="shared" si="7"/>
+        <v>129.35224999999994</v>
       </c>
       <c r="J6" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="8"/>
+        <v>129.36224999999993</v>
       </c>
       <c r="K6" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" si="9"/>
+        <v>129.32124999999994</v>
       </c>
       <c r="L6" s="4">
-        <v>129.322</v>
+        <f t="shared" si="10"/>
+        <v>129.33324999999994</v>
       </c>
       <c r="M6" s="4">
-        <v>129.36600000000001</v>
+        <f t="shared" si="11"/>
+        <v>129.36224999999993</v>
       </c>
       <c r="N6" s="4">
-        <v>129.322</v>
+        <f t="shared" si="12"/>
+        <v>129.32624999999993</v>
       </c>
       <c r="O6" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="13"/>
+        <v>129.35124999999994</v>
       </c>
       <c r="P6" s="4">
-        <v>129.38499999999999</v>
-      </c>
-      <c r="R6" s="4">
-        <v>6</v>
-      </c>
-      <c r="S6" s="4">
-        <v>129.351</v>
-      </c>
-      <c r="T6" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="U6" s="4">
-        <v>129.333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38924999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>129.35</v>
+        <f t="shared" si="0"/>
+        <v>129.36729999999991</v>
       </c>
       <c r="C7" s="4">
-        <v>129.358</v>
+        <f t="shared" si="1"/>
+        <v>129.35529999999991</v>
       </c>
       <c r="D7" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="2"/>
+        <v>129.32129999999992</v>
       </c>
       <c r="E7" s="4">
-        <v>129.327</v>
+        <f t="shared" si="3"/>
+        <v>129.32829999999993</v>
       </c>
       <c r="F7" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36229999999992</v>
       </c>
       <c r="G7" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" si="5"/>
+        <v>129.32829999999993</v>
       </c>
       <c r="H7" s="4">
-        <v>129.35300000000001</v>
+        <f t="shared" si="6"/>
+        <v>129.35129999999992</v>
       </c>
       <c r="I7" s="4">
-        <v>129.352</v>
+        <f t="shared" si="7"/>
+        <v>129.35229999999993</v>
       </c>
       <c r="J7" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="8"/>
+        <v>129.36229999999992</v>
       </c>
       <c r="K7" s="4">
-        <v>129.321</v>
+        <f t="shared" si="9"/>
+        <v>129.32129999999992</v>
       </c>
       <c r="L7" s="4">
-        <v>129.322</v>
+        <f t="shared" si="10"/>
+        <v>129.33329999999992</v>
       </c>
       <c r="M7" s="4">
-        <v>129.36500000000001</v>
+        <f t="shared" si="11"/>
+        <v>129.36229999999992</v>
       </c>
       <c r="N7" s="4">
-        <v>129.32499999999999</v>
+        <f t="shared" si="12"/>
+        <v>129.32629999999992</v>
       </c>
       <c r="O7" s="4">
-        <v>129.328</v>
+        <f t="shared" si="13"/>
+        <v>129.35129999999992</v>
       </c>
       <c r="P7" s="4">
-        <v>129.386</v>
-      </c>
-      <c r="R7" s="4">
-        <v>7</v>
-      </c>
-      <c r="S7" s="4">
-        <v>129.35</v>
-      </c>
-      <c r="T7" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="U7" s="4">
-        <v>129.33199999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38929999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="0"/>
+        <v>129.3673499999999</v>
       </c>
       <c r="C8" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>129.3553499999999</v>
       </c>
       <c r="D8" s="4">
-        <v>129.322</v>
+        <f t="shared" si="2"/>
+        <v>129.32134999999991</v>
       </c>
       <c r="E8" s="4">
-        <v>129.322</v>
+        <f t="shared" si="3"/>
+        <v>129.32834999999992</v>
       </c>
       <c r="F8" s="4">
-        <v>129.36099999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36234999999991</v>
       </c>
       <c r="G8" s="4">
-        <v>129.327</v>
+        <f t="shared" si="5"/>
+        <v>129.32834999999992</v>
       </c>
       <c r="H8" s="4">
-        <v>129.351</v>
+        <f t="shared" si="6"/>
+        <v>129.35134999999991</v>
       </c>
       <c r="I8" s="4">
-        <v>129.35599999999999</v>
+        <f t="shared" si="7"/>
+        <v>129.35234999999992</v>
       </c>
       <c r="J8" s="4">
-        <v>129.363</v>
+        <f t="shared" si="8"/>
+        <v>129.36234999999991</v>
       </c>
       <c r="K8" s="4">
-        <v>129.322</v>
+        <f t="shared" si="9"/>
+        <v>129.32134999999991</v>
       </c>
       <c r="L8" s="4">
-        <v>129.322</v>
+        <f t="shared" si="10"/>
+        <v>129.33334999999991</v>
       </c>
       <c r="M8" s="4">
-        <v>129.36099999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36234999999991</v>
       </c>
       <c r="N8" s="4">
-        <v>129.327</v>
+        <f t="shared" si="12"/>
+        <v>129.32634999999991</v>
       </c>
       <c r="O8" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="13"/>
+        <v>129.35134999999991</v>
       </c>
       <c r="P8" s="4">
-        <v>129.38800000000001</v>
-      </c>
-      <c r="R8" s="4">
-        <v>8</v>
-      </c>
-      <c r="S8" s="4">
-        <v>129.35499999999999</v>
-      </c>
-      <c r="T8" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="U8" s="4">
-        <v>129.322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38934999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="0"/>
+        <v>129.36739999999989</v>
       </c>
       <c r="C9" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="1"/>
+        <v>129.35539999999989</v>
       </c>
       <c r="D9" s="4">
-        <v>129.322</v>
+        <f t="shared" si="2"/>
+        <v>129.3213999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>129.32</v>
+        <f t="shared" si="3"/>
+        <v>129.3283999999999</v>
       </c>
       <c r="F9" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="4"/>
+        <v>129.36239999999989</v>
       </c>
       <c r="G9" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="5"/>
+        <v>129.3283999999999</v>
       </c>
       <c r="H9" s="4">
-        <v>129.358</v>
+        <f t="shared" si="6"/>
+        <v>129.3513999999999</v>
       </c>
       <c r="I9" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="7"/>
+        <v>129.3523999999999</v>
       </c>
       <c r="J9" s="4">
-        <v>129.36500000000001</v>
+        <f t="shared" si="8"/>
+        <v>129.36239999999989</v>
       </c>
       <c r="K9" s="4">
-        <v>129.322</v>
+        <f t="shared" si="9"/>
+        <v>129.3213999999999</v>
       </c>
       <c r="L9" s="4">
-        <v>129.32</v>
+        <f t="shared" si="10"/>
+        <v>129.3333999999999</v>
       </c>
       <c r="M9" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="11"/>
+        <v>129.36239999999989</v>
       </c>
       <c r="N9" s="4">
-        <v>129.32900000000001</v>
+        <f t="shared" si="12"/>
+        <v>129.32639999999989</v>
       </c>
       <c r="O9" s="4">
-        <v>129.35599999999999</v>
+        <f t="shared" si="13"/>
+        <v>129.3513999999999</v>
       </c>
       <c r="P9" s="4">
-        <v>129.381</v>
-      </c>
-      <c r="R9" s="4">
-        <v>9</v>
-      </c>
-      <c r="S9" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="T9" s="4">
-        <v>129.36199999999999</v>
-      </c>
-      <c r="U9" s="4">
-        <v>129.322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38939999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>129.369</v>
+        <f t="shared" si="0"/>
+        <v>129.36744999999988</v>
       </c>
       <c r="C10" s="4">
-        <v>129.36099999999999</v>
+        <f t="shared" si="1"/>
+        <v>129.35544999999988</v>
       </c>
       <c r="D10" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="2"/>
+        <v>129.32144999999988</v>
       </c>
       <c r="E10" s="4">
-        <v>129.33600000000001</v>
+        <f t="shared" si="3"/>
+        <v>129.32844999999989</v>
       </c>
       <c r="F10" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36244999999988</v>
       </c>
       <c r="G10" s="4">
-        <v>129.328</v>
+        <f t="shared" si="5"/>
+        <v>129.32844999999989</v>
       </c>
       <c r="H10" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="6"/>
+        <v>129.35144999999989</v>
       </c>
       <c r="I10" s="4">
-        <v>129.35599999999999</v>
+        <f t="shared" si="7"/>
+        <v>129.35244999999989</v>
       </c>
       <c r="J10" s="4">
-        <v>129.36099999999999</v>
+        <f t="shared" si="8"/>
+        <v>129.36244999999988</v>
       </c>
       <c r="K10" s="4">
-        <v>129.32599999999999</v>
+        <f t="shared" si="9"/>
+        <v>129.32144999999988</v>
       </c>
       <c r="L10" s="4">
-        <v>129.33600000000001</v>
+        <f t="shared" si="10"/>
+        <v>129.33344999999989</v>
       </c>
       <c r="M10" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36244999999988</v>
       </c>
       <c r="N10" s="4">
-        <v>129.328</v>
+        <f t="shared" si="12"/>
+        <v>129.32644999999988</v>
       </c>
       <c r="O10" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="13"/>
+        <v>129.35144999999989</v>
       </c>
       <c r="P10" s="4">
-        <v>129.38200000000001</v>
-      </c>
-      <c r="R10" s="4">
-        <v>10</v>
-      </c>
-      <c r="S10" s="4">
-        <v>129.369</v>
-      </c>
-      <c r="T10" s="4">
-        <v>129.36099999999999</v>
-      </c>
-      <c r="U10" s="4">
-        <v>129.32599999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.3894499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>129.375</v>
+        <f t="shared" si="0"/>
+        <v>129.36749999999986</v>
       </c>
       <c r="C11" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>129.35549999999986</v>
       </c>
       <c r="D11" s="4">
-        <v>129.321</v>
+        <f t="shared" si="2"/>
+        <v>129.32149999999987</v>
       </c>
       <c r="E11" s="4">
-        <v>129.33500000000001</v>
+        <f t="shared" si="3"/>
+        <v>129.32849999999988</v>
       </c>
       <c r="F11" s="4">
-        <v>129.369</v>
+        <f t="shared" si="4"/>
+        <v>129.36249999999987</v>
       </c>
       <c r="G11" s="4">
-        <v>129.33099999999999</v>
+        <f t="shared" si="5"/>
+        <v>129.32849999999988</v>
       </c>
       <c r="H11" s="4">
-        <v>129.358</v>
+        <f t="shared" si="6"/>
+        <v>129.35149999999987</v>
       </c>
       <c r="I11" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="7"/>
+        <v>129.35249999999988</v>
       </c>
       <c r="J11" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="8"/>
+        <v>129.36249999999987</v>
       </c>
       <c r="K11" s="4">
-        <v>129.321</v>
+        <f t="shared" si="9"/>
+        <v>129.32149999999987</v>
       </c>
       <c r="L11" s="4">
-        <v>129.33799999999999</v>
+        <f t="shared" si="10"/>
+        <v>129.33349999999987</v>
       </c>
       <c r="M11" s="4">
-        <v>129.36099999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36249999999987</v>
       </c>
       <c r="N11" s="4">
-        <v>129.321</v>
+        <f t="shared" si="12"/>
+        <v>129.32649999999987</v>
       </c>
       <c r="O11" s="4">
-        <v>129.35499999999999</v>
+        <f t="shared" si="13"/>
+        <v>129.35149999999987</v>
       </c>
       <c r="P11" s="4">
-        <v>129.386</v>
-      </c>
-      <c r="R11" s="4">
-        <v>11</v>
-      </c>
-      <c r="S11" s="4">
-        <v>129.375</v>
-      </c>
-      <c r="T11" s="4">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="U11" s="4">
-        <v>129.321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38949999999988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>129.37799999999999</v>
+        <f t="shared" si="0"/>
+        <v>129.36754999999985</v>
       </c>
       <c r="C12" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="1"/>
+        <v>129.35554999999985</v>
       </c>
       <c r="D12" s="4">
-        <v>129.339</v>
+        <f t="shared" si="2"/>
+        <v>129.32154999999986</v>
       </c>
       <c r="E12" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="3"/>
+        <v>129.32854999999986</v>
       </c>
       <c r="F12" s="4">
-        <v>129.37</v>
+        <f t="shared" si="4"/>
+        <v>129.36254999999986</v>
       </c>
       <c r="G12" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="5"/>
+        <v>129.32854999999986</v>
       </c>
       <c r="H12" s="4">
-        <v>129.35300000000001</v>
+        <f t="shared" si="6"/>
+        <v>129.35154999999986</v>
       </c>
       <c r="I12" s="4">
-        <v>129.36000000000001</v>
+        <f t="shared" si="7"/>
+        <v>129.35254999999987</v>
       </c>
       <c r="J12" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="8"/>
+        <v>129.36254999999986</v>
       </c>
       <c r="K12" s="4">
-        <v>129.339</v>
+        <f t="shared" si="9"/>
+        <v>129.32154999999986</v>
       </c>
       <c r="L12" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="10"/>
+        <v>129.33354999999986</v>
       </c>
       <c r="M12" s="4">
-        <v>129.363</v>
+        <f t="shared" si="11"/>
+        <v>129.36254999999986</v>
       </c>
       <c r="N12" s="4">
-        <v>129.322</v>
+        <f t="shared" si="12"/>
+        <v>129.32654999999986</v>
       </c>
       <c r="O12" s="4">
-        <v>129.351</v>
+        <f t="shared" si="13"/>
+        <v>129.35154999999986</v>
       </c>
       <c r="P12" s="4">
-        <v>129.38300000000001</v>
-      </c>
-      <c r="R12" s="4">
-        <v>12</v>
-      </c>
-      <c r="S12" s="4">
-        <v>129.37799999999999</v>
-      </c>
-      <c r="T12" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="U12" s="4">
-        <v>129.339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38954999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>129.37799999999999</v>
+        <f t="shared" si="0"/>
+        <v>129.36759999999984</v>
       </c>
       <c r="C13" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="1"/>
+        <v>129.35559999999984</v>
       </c>
       <c r="D13" s="4">
-        <v>129.339</v>
+        <f t="shared" si="2"/>
+        <v>129.32159999999985</v>
       </c>
       <c r="E13" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="3"/>
+        <v>129.32859999999985</v>
       </c>
       <c r="F13" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36259999999984</v>
       </c>
       <c r="G13" s="4">
-        <v>129.33099999999999</v>
+        <f t="shared" si="5"/>
+        <v>129.32859999999985</v>
       </c>
       <c r="H13" s="4">
-        <v>129.357</v>
+        <f t="shared" si="6"/>
+        <v>129.35159999999985</v>
       </c>
       <c r="I13" s="4">
-        <v>129.357</v>
+        <f t="shared" si="7"/>
+        <v>129.35259999999985</v>
       </c>
       <c r="J13" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="8"/>
+        <v>129.36259999999984</v>
       </c>
       <c r="K13" s="4">
-        <v>129.339</v>
+        <f t="shared" si="9"/>
+        <v>129.32159999999985</v>
       </c>
       <c r="L13" s="4">
-        <v>129.33199999999999</v>
+        <f t="shared" si="10"/>
+        <v>129.33359999999985</v>
       </c>
       <c r="M13" s="4">
-        <v>129.36199999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36259999999984</v>
       </c>
       <c r="N13" s="4">
-        <v>129.321</v>
+        <f t="shared" si="12"/>
+        <v>129.32659999999984</v>
       </c>
       <c r="O13" s="4">
-        <v>129.35900000000001</v>
+        <f t="shared" si="13"/>
+        <v>129.35159999999985</v>
       </c>
       <c r="P13" s="4">
-        <v>129.38499999999999</v>
-      </c>
-      <c r="R13" s="4">
-        <v>13</v>
-      </c>
-      <c r="S13" s="4">
-        <v>129.37799999999999</v>
-      </c>
-      <c r="T13" s="4">
-        <v>129.35900000000001</v>
-      </c>
-      <c r="U13" s="4">
-        <v>129.339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>129.38959999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>129.376</v>
+        <f t="shared" si="0"/>
+        <v>129.36764999999983</v>
       </c>
       <c r="C14" s="4">
-        <v>129.358</v>
+        <f t="shared" si="1"/>
+        <v>129.35564999999983</v>
       </c>
       <c r="D14" s="4">
-        <v>129.33799999999999</v>
+        <f t="shared" si="2"/>
+        <v>129.32164999999983</v>
       </c>
       <c r="E14" s="4">
-        <v>129.33500000000001</v>
+        <f t="shared" si="3"/>
+        <v>129.32864999999984</v>
       </c>
       <c r="F14" s="4">
-        <v>129.36799999999999</v>
+        <f t="shared" si="4"/>
+        <v>129.36264999999983</v>
       </c>
       <c r="G14" s="4">
-        <v>129.33000000000001</v>
+        <f t="shared" si="5"/>
+        <v>129.32864999999984</v>
       </c>
       <c r="H14" s="4">
-        <v>129.357</v>
+        <f t="shared" si="6"/>
+        <v>129.35164999999984</v>
       </c>
       <c r="I14" s="4">
-        <v>129.358</v>
+        <f t="shared" si="7"/>
+        <v>129.35264999999984</v>
       </c>
       <c r="J14" s="4">
-        <v>129.358</v>
+        <f t="shared" si="8"/>
+        <v>129.36264999999983</v>
       </c>
       <c r="K14" s="4">
-        <v>129.33799999999999</v>
+        <f t="shared" si="9"/>
+        <v>129.32164999999983</v>
       </c>
       <c r="L14" s="4">
-        <v>129.33500000000001</v>
+        <f t="shared" si="10"/>
+        <v>129.33364999999984</v>
       </c>
       <c r="M14" s="4">
-        <v>129.33799999999999</v>
+        <f t="shared" si="11"/>
+        <v>129.36264999999983</v>
       </c>
       <c r="N14" s="4">
-        <v>129.32</v>
+        <f t="shared" si="12"/>
+        <v>129.32664999999983</v>
       </c>
       <c r="O14" s="4">
-        <v>129.35300000000001</v>
+        <f t="shared" si="13"/>
+        <v>129.35164999999984</v>
       </c>
       <c r="P14" s="4">
-        <v>129.386</v>
-      </c>
-      <c r="R14" s="4">
-        <v>14</v>
-      </c>
-      <c r="S14" s="4">
-        <v>129.376</v>
-      </c>
-      <c r="T14" s="4">
-        <v>129.358</v>
-      </c>
-      <c r="U14" s="4">
-        <v>129.33799999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="R17" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <f>SQRT(POWER(SUM(S1:U1), 2))</f>
-        <v>388.04300000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q19" s="4">
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ref="R19:R31" si="0">SQRT(POWER(SUM(S2:U2), 2))</f>
-        <v>388.04399999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q20" s="4">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>388.05</v>
-      </c>
-    </row>
-    <row r="21" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q21" s="4">
-        <v>4</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>388.04899999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q22" s="4">
-        <v>5</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>388.04499999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q23" s="4">
-        <v>6</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>388.03899999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q24" s="4">
-        <v>7</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>388.03999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q25" s="4">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>388.03700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q26" s="4">
-        <v>9</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>388.04599999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q27" s="4">
-        <v>10</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>388.05600000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q28" s="4">
-        <v>11</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>388.05600000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q29" s="4">
-        <v>12</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>388.07599999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q30" s="4">
-        <v>13</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
-        <v>388.07599999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="17:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q31" s="4">
-        <v>14</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>388.072</v>
+        <f t="shared" si="14"/>
+        <v>129.38964999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K17" s="6">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>129.36699999999999</v>
+      </c>
+      <c r="C1" s="4">
+        <v>129.35499999999999</v>
+      </c>
+      <c r="D1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="E1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="F1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="G1" s="4">
+        <v>129.328</v>
+      </c>
+      <c r="H1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="I1" s="4">
+        <v>129.352</v>
+      </c>
+      <c r="J1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>129.321</v>
+      </c>
+      <c r="L1" s="4">
+        <v>129.333</v>
+      </c>
+      <c r="M1" s="4">
+        <v>129.36199999999999</v>
+      </c>
+      <c r="N1" s="4">
+        <v>129.32599999999999</v>
+      </c>
+      <c r="O1" s="4">
+        <v>129.351</v>
+      </c>
+      <c r="P1" s="4">
+        <v>129.38900000000001</v>
+      </c>
+      <c r="R1" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="S1" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>B1+$R$1</f>
+        <v>129.369</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:P2" si="0">C1+$R$1</f>
+        <v>129.357</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>129.32300000000001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>129.33000000000001</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>129.364</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>129.33000000000001</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>129.35300000000001</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>129.35400000000001</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>129.364</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>129.32300000000001</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>129.33500000000001</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>129.364</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>129.328</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>129.35300000000001</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>129.39100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="1">B2+$R$1</f>
+        <v>129.37100000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="2">C2+$R$1</f>
+        <v>129.35900000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="3">D2+$R$1</f>
+        <v>129.32500000000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="4">E2+$R$1</f>
+        <v>129.33200000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="5">F2+$R$1</f>
+        <v>129.36600000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="6">G2+$R$1</f>
+        <v>129.33200000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="7">H2+$R$1</f>
+        <v>129.35500000000002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="8">I2+$R$1</f>
+        <v>129.35600000000002</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="9">J2+$R$1</f>
+        <v>129.36600000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="10">K2+$R$1</f>
+        <v>129.32500000000002</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="11">L2+$R$1</f>
+        <v>129.33700000000002</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="12">M2+$R$1</f>
+        <v>129.36600000000001</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="13">N2+$R$1</f>
+        <v>129.33000000000001</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="14">O2+$R$1</f>
+        <v>129.35500000000002</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="15">P2+$R$1</f>
+        <v>129.39300000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>129.37300000000002</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>129.36100000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>129.32700000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>129.33400000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="5"/>
+        <v>129.36800000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>129.33400000000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>129.35700000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="8"/>
+        <v>129.35800000000003</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="9"/>
+        <v>129.36800000000002</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="10"/>
+        <v>129.32700000000003</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="11"/>
+        <v>129.33900000000003</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="12"/>
+        <v>129.36800000000002</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="13"/>
+        <v>129.33200000000002</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="14"/>
+        <v>129.35700000000003</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="15"/>
+        <v>129.39500000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>129.37500000000003</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>129.36300000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>129.32900000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>129.33600000000004</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>129.37000000000003</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>129.33600000000004</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>129.35900000000004</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>129.36000000000004</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="9"/>
+        <v>129.37000000000003</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="10"/>
+        <v>129.32900000000004</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="11"/>
+        <v>129.34100000000004</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="12"/>
+        <v>129.37000000000003</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="13"/>
+        <v>129.33400000000003</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="14"/>
+        <v>129.35900000000004</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="15"/>
+        <v>129.39700000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>129.37700000000004</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>129.36500000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>129.33100000000005</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>129.33800000000005</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>129.37200000000004</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>129.33800000000005</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>129.36100000000005</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>129.36200000000005</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="9"/>
+        <v>129.37200000000004</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="10"/>
+        <v>129.33100000000005</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="11"/>
+        <v>129.34300000000005</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="12"/>
+        <v>129.37200000000004</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="13"/>
+        <v>129.33600000000004</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="14"/>
+        <v>129.36100000000005</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="15"/>
+        <v>129.39900000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16">
+        <f>B6+$S$1</f>
+        <v>129.38100000000003</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ref="C7:P7" si="16">C6+$S$1</f>
+        <v>129.36900000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.33500000000004</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.34200000000004</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.37600000000003</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.34200000000004</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.36500000000004</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.36600000000004</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.37600000000003</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.33500000000004</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.34700000000004</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.37600000000003</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.34000000000003</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.36500000000004</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="16"/>
+        <v>129.40300000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16">
+        <f t="shared" ref="B8:B9" si="17">B7+$S$1</f>
+        <v>129.38500000000002</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ref="C8:C9" si="18">C7+$S$1</f>
+        <v>129.37300000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:D9" si="19">D7+$S$1</f>
+        <v>129.33900000000003</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ref="E8:E9" si="20">E7+$S$1</f>
+        <v>129.34600000000003</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" ref="F8:F9" si="21">F7+$S$1</f>
+        <v>129.38000000000002</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" ref="G8:G9" si="22">G7+$S$1</f>
+        <v>129.34600000000003</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" ref="H8:H9" si="23">H7+$S$1</f>
+        <v>129.36900000000003</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ref="I8:I9" si="24">I7+$S$1</f>
+        <v>129.37000000000003</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" ref="J8:J9" si="25">J7+$S$1</f>
+        <v>129.38000000000002</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" ref="K8:K9" si="26">K7+$S$1</f>
+        <v>129.33900000000003</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" ref="L8:L9" si="27">L7+$S$1</f>
+        <v>129.35100000000003</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:M9" si="28">M7+$S$1</f>
+        <v>129.38000000000002</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" ref="N8:N9" si="29">N7+$S$1</f>
+        <v>129.34400000000002</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" ref="O8:O9" si="30">O7+$S$1</f>
+        <v>129.36900000000003</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" ref="P8:P9" si="31">P7+$S$1</f>
+        <v>129.40700000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16">
+        <f t="shared" si="17"/>
+        <v>129.38900000000001</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="18"/>
+        <v>129.37700000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="19"/>
+        <v>129.34300000000002</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="20"/>
+        <v>129.35000000000002</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="21"/>
+        <v>129.38400000000001</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="22"/>
+        <v>129.35000000000002</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="23"/>
+        <v>129.37300000000002</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="24"/>
+        <v>129.37400000000002</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="25"/>
+        <v>129.38400000000001</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="26"/>
+        <v>129.34300000000002</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="27"/>
+        <v>129.35500000000002</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="28"/>
+        <v>129.38400000000001</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="29"/>
+        <v>129.34800000000001</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="30"/>
+        <v>129.37300000000002</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="31"/>
+        <v>129.41100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
+        <f>B6+$R$1</f>
+        <v>129.37900000000005</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:P10" si="32">C6+$R$1</f>
+        <v>129.36700000000005</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.33300000000006</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.34000000000006</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.37400000000005</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.34000000000006</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.36300000000006</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.36400000000006</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.37400000000005</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.33300000000006</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.34500000000006</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.37400000000005</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.33800000000005</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.36300000000006</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="32"/>
+        <v>129.40100000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10+$R$1</f>
+        <v>129.38100000000006</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" ref="C11:P14" si="33">C10+$R$1</f>
+        <v>129.36900000000006</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.33500000000006</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.34200000000007</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.37600000000006</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.34200000000007</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.36500000000007</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.36600000000007</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.37600000000006</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.33500000000006</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.34700000000007</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.37600000000006</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.34000000000006</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.36500000000007</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="33"/>
+        <v>129.40300000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" ref="B12:B14" si="34">B11+$R$1</f>
+        <v>129.38300000000007</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C14" si="35">C11+$R$1</f>
+        <v>129.37100000000007</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:D14" si="36">D11+$R$1</f>
+        <v>129.33700000000007</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12:E14" si="37">E11+$R$1</f>
+        <v>129.34400000000008</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:F14" si="38">F11+$R$1</f>
+        <v>129.37800000000007</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" ref="G12:G14" si="39">G11+$R$1</f>
+        <v>129.34400000000008</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" ref="H12:H14" si="40">H11+$R$1</f>
+        <v>129.36700000000008</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" ref="I12:I14" si="41">I11+$R$1</f>
+        <v>129.36800000000008</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" ref="J12:J14" si="42">J11+$R$1</f>
+        <v>129.37800000000007</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" ref="K12:K14" si="43">K11+$R$1</f>
+        <v>129.33700000000007</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" ref="L12:L14" si="44">L11+$R$1</f>
+        <v>129.34900000000007</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" ref="M12:M14" si="45">M11+$R$1</f>
+        <v>129.37800000000007</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" ref="N12:N14" si="46">N11+$R$1</f>
+        <v>129.34200000000007</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" ref="O12:O14" si="47">O11+$R$1</f>
+        <v>129.36700000000008</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" ref="P12:P14" si="48">P11+$R$1</f>
+        <v>129.40500000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" si="34"/>
+        <v>129.38500000000008</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="35"/>
+        <v>129.37300000000008</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="36"/>
+        <v>129.33900000000008</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="37"/>
+        <v>129.34600000000009</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="38"/>
+        <v>129.38000000000008</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="39"/>
+        <v>129.34600000000009</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="40"/>
+        <v>129.36900000000009</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="41"/>
+        <v>129.37000000000009</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="42"/>
+        <v>129.38000000000008</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="43"/>
+        <v>129.33900000000008</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="44"/>
+        <v>129.35100000000008</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="45"/>
+        <v>129.38000000000008</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="46"/>
+        <v>129.34400000000008</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="47"/>
+        <v>129.36900000000009</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="48"/>
+        <v>129.4070000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="34"/>
+        <v>129.38700000000009</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="35"/>
+        <v>129.37500000000009</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="36"/>
+        <v>129.34100000000009</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="37"/>
+        <v>129.3480000000001</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="38"/>
+        <v>129.38200000000009</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="39"/>
+        <v>129.3480000000001</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="40"/>
+        <v>129.37100000000009</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="41"/>
+        <v>129.3720000000001</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="42"/>
+        <v>129.38200000000009</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="43"/>
+        <v>129.34100000000009</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="44"/>
+        <v>129.35300000000009</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="45"/>
+        <v>129.38200000000009</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="46"/>
+        <v>129.34600000000009</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="47"/>
+        <v>129.37100000000009</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="48"/>
+        <v>129.40900000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>